--- a/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$495</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="132">
   <si>
     <t>Site</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>Regular pattern of early morning higher flows. Offset was adjusted sligthly for the August data</t>
+  </si>
+  <si>
+    <t>Patching weir-pulled probe out</t>
+  </si>
+  <si>
+    <t>Weird red color 7/30</t>
+  </si>
+  <si>
+    <t>High flow 8/30 confirmed by game cam</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,6 +558,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,30 +1763,29 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43586.84375</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="18">
         <v>0</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="F44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7">
         <v>43586</v>
@@ -1778,121 +1793,123 @@
       <c r="C45" s="7">
         <v>43586.84375</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E45" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F45" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="7">
-        <v>43586</v>
+        <v>43647.489583333336</v>
       </c>
       <c r="C46" s="7">
-        <v>43586.84375</v>
+        <v>43661.625</v>
       </c>
       <c r="D46" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E46" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="5"/>
       <c r="H46" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>43647.489583333336</v>
+        <v>43661.628472222219</v>
       </c>
       <c r="C47" s="7">
-        <v>43661.625</v>
+        <v>43677.996527777781</v>
       </c>
       <c r="D47" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="5"/>
-      <c r="H47" s="6" t="s">
+        <v>0.65</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="7">
-        <v>43661.628472222219</v>
-      </c>
-      <c r="C48" s="7">
-        <v>43677.996527777781</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.65</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F48" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="G48" s="6"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B49" s="7">
+        <v>43592.649305555598</v>
+      </c>
+      <c r="C49" s="7">
+        <v>43594.708333333299</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
       <c r="E49" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="6"/>
       <c r="H49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="7">
-        <v>43592.649305555598</v>
-      </c>
-      <c r="C50" s="7">
-        <v>43594.708333333299</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="B50" s="32">
+        <v>43633.604166666664</v>
+      </c>
+      <c r="C50" s="32">
+        <v>43738.996527777781</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="33">
         <v>0</v>
       </c>
-      <c r="E50" s="18">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5" t="b">
+      <c r="F50" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="s">
-        <v>65</v>
+      <c r="H50" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2012,11 +2029,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A279" sqref="A279:XFD280"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268:XFD272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6679,160 +6696,144 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B268" s="7">
-        <v>43612.5</v>
+        <v>43636.6875</v>
       </c>
       <c r="C268" s="7">
-        <v>43633.586805555555</v>
+        <v>43636.938888888886</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B269" s="7">
-        <v>43640.555555555555</v>
+        <v>43638.147222222222</v>
       </c>
       <c r="C269" s="7">
-        <v>43640.625</v>
+        <v>43638.563888888886</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B270" s="7">
-        <v>43647.863194444442</v>
+        <v>43639.022222222222</v>
       </c>
       <c r="C270" s="7">
-        <v>43653.038194444445</v>
+        <v>43639.355555555558</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B271" s="7">
-        <v>43653.996527777781</v>
+        <v>43639.647222222222</v>
       </c>
       <c r="C271" s="7">
-        <v>43654.954861111109</v>
+        <v>43640.109722222223</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B272" s="7">
-        <v>43655.288194444445</v>
+        <v>43644.277083333334</v>
       </c>
       <c r="C272" s="7">
-        <v>43663.472222222219</v>
+        <v>43644.943749999999</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="7" t="s">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B273" s="7">
-        <v>43677.729166666664</v>
+        <v>43612.5</v>
       </c>
       <c r="C273" s="7">
-        <v>43678.395833333336</v>
+        <v>43633.586805555555</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E273" s="6"/>
       <c r="F273" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B274" s="7">
-        <v>43678.680555555555</v>
+        <v>43647.863194444442</v>
       </c>
       <c r="C274" s="7">
-        <v>43680.055555555555</v>
+        <v>43653.038194444445</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="E274" s="6"/>
       <c r="F274" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B275" s="7">
-        <v>43685.638888888891</v>
+        <v>43653.996527777781</v>
       </c>
       <c r="C275" s="7">
-        <v>43685.888888888891</v>
+        <v>43654.954861111109</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="E275" s="6"/>
       <c r="F275" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B276" s="7">
-        <v>43689.347222222219</v>
+        <v>43655.288194444445</v>
       </c>
       <c r="C276" s="7">
-        <v>43691.541666666664</v>
+        <v>43663.472222222219</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E276" s="6"/>
       <c r="F276" s="6" t="s">
         <v>63</v>
       </c>
@@ -6842,10 +6843,10 @@
         <v>13</v>
       </c>
       <c r="B277" s="7">
-        <v>43694.847222222219</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="C277" s="7">
-        <v>43698.020833333336</v>
+        <v>43678.395833333336</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>107</v>
@@ -6859,10 +6860,10 @@
         <v>13</v>
       </c>
       <c r="B278" s="7">
-        <v>43703.472222222219</v>
+        <v>43678.680555555555</v>
       </c>
       <c r="C278" s="7">
-        <v>43706.6875</v>
+        <v>43680.055555555555</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>107</v>
@@ -6871,76 +6872,72 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
-        <v>27</v>
+    <row r="279" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B279" s="7">
-        <v>43591.21875</v>
+        <v>43685.638888888891</v>
       </c>
       <c r="C279" s="7">
-        <v>43591.791666666664</v>
+        <v>43685.888888888891</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E279" s="6"/>
+        <v>107</v>
+      </c>
       <c r="F279" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B280" s="7">
-        <v>43592.135416666664</v>
+        <v>43689.347222222219</v>
       </c>
       <c r="C280" s="7">
-        <v>43592.791666666664</v>
+        <v>43691.541666666664</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E280" s="6"/>
-      <c r="F280" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B281" s="7">
-        <v>43593.270833333336</v>
+        <v>43694.847222222219</v>
       </c>
       <c r="C281" s="7">
-        <v>43593.416666666664</v>
+        <v>43698.020833333336</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E281" s="6"/>
+        <v>107</v>
+      </c>
       <c r="F281" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B282" s="7">
-        <v>43593.822916666664</v>
+        <v>43703.472222222219</v>
       </c>
       <c r="C282" s="7">
-        <v>43594.375</v>
+        <v>43706.6875</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E282" s="6"/>
+        <v>107</v>
+      </c>
       <c r="F282" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,10 +6945,10 @@
         <v>27</v>
       </c>
       <c r="B283" s="7">
-        <v>43594.854166666664</v>
+        <v>43591.21875</v>
       </c>
       <c r="C283" s="7">
-        <v>43595.083333333336</v>
+        <v>43591.791666666664</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>47</v>
@@ -6966,16 +6963,16 @@
         <v>27</v>
       </c>
       <c r="B284" s="7">
-        <v>43595.239583333336</v>
+        <v>43592.135416666664</v>
       </c>
       <c r="C284" s="7">
-        <v>43595.333333333336</v>
+        <v>43592.791666666664</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E284" s="6"/>
-      <c r="F284" s="6" t="s">
+      <c r="F284" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6984,10 +6981,10 @@
         <v>27</v>
       </c>
       <c r="B285" s="7">
-        <v>43596.333333333336</v>
+        <v>43593.270833333336</v>
       </c>
       <c r="C285" s="7">
-        <v>43596.888888888898</v>
+        <v>43593.416666666664</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>47</v>
@@ -7002,17 +6999,17 @@
         <v>27</v>
       </c>
       <c r="B286" s="7">
-        <v>43601.375</v>
+        <v>43593.822916666664</v>
       </c>
       <c r="C286" s="7">
-        <v>43601.875</v>
+        <v>43594.375</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7020,17 +7017,17 @@
         <v>27</v>
       </c>
       <c r="B287" s="7">
-        <v>43604.416666666664</v>
+        <v>43594.854166666664</v>
       </c>
       <c r="C287" s="7">
-        <v>43606.083333333336</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E287" s="6"/>
-      <c r="F287" t="s">
-        <v>63</v>
+      <c r="F287" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -7038,17 +7035,17 @@
         <v>27</v>
       </c>
       <c r="B288" s="7">
-        <v>43606.916666666664</v>
+        <v>43595.239583333336</v>
       </c>
       <c r="C288" s="7">
-        <v>43608.625</v>
+        <v>43595.333333333336</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E288" s="6"/>
-      <c r="F288" t="s">
-        <v>63</v>
+      <c r="F288" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7056,28 +7053,28 @@
         <v>27</v>
       </c>
       <c r="B289" s="7">
-        <v>43611.291666666664</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C289" s="7">
-        <v>43612.5</v>
+        <v>43596.888888888898</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E289" s="6"/>
-      <c r="F289" t="s">
-        <v>63</v>
+      <c r="F289" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B290" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C290" s="14">
-        <v>43591.513888888891</v>
+        <v>27</v>
+      </c>
+      <c r="B290" s="7">
+        <v>43601.375</v>
+      </c>
+      <c r="C290" s="7">
+        <v>43601.875</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>47</v>
@@ -7089,55 +7086,55 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B291" s="25">
-        <v>43592.152777777781</v>
-      </c>
-      <c r="C291" s="14">
-        <v>43592.614583333336</v>
+        <v>27</v>
+      </c>
+      <c r="B291" s="7">
+        <v>43604.416666666664</v>
+      </c>
+      <c r="C291" s="7">
+        <v>43606.083333333336</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E291" s="6"/>
-      <c r="F291" s="6" t="s">
+      <c r="F291" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B292" s="14">
-        <v>43593.815972222219</v>
-      </c>
-      <c r="C292" s="14">
-        <v>43594.416666666664</v>
+        <v>27</v>
+      </c>
+      <c r="B292" s="7">
+        <v>43606.916666666664</v>
+      </c>
+      <c r="C292" s="7">
+        <v>43608.625</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E292" s="6"/>
-      <c r="F292" s="6" t="s">
+      <c r="F292" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B293" s="14">
-        <v>43594.850694444445</v>
-      </c>
-      <c r="C293" s="14">
-        <v>43594.979166666664</v>
+        <v>27</v>
+      </c>
+      <c r="B293" s="7">
+        <v>43611.291666666664</v>
+      </c>
+      <c r="C293" s="7">
+        <v>43612.5</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E293" s="6"/>
-      <c r="F293" s="6" t="s">
+      <c r="F293" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7146,10 +7143,10 @@
         <v>14</v>
       </c>
       <c r="B294" s="14">
-        <v>43596.1875</v>
+        <v>43591.375</v>
       </c>
       <c r="C294" s="14">
-        <v>43597.076388888891</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>47</v>
@@ -7163,11 +7160,11 @@
       <c r="A295" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B295" s="14">
-        <v>43601.409722222219</v>
+      <c r="B295" s="25">
+        <v>43592.152777777781</v>
       </c>
       <c r="C295" s="14">
-        <v>43601.743055555555</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>47</v>
@@ -7182,16 +7179,16 @@
         <v>14</v>
       </c>
       <c r="B296" s="14">
-        <v>43604.423611111109</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C296" s="14">
-        <v>43620.5</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E296" s="6"/>
-      <c r="F296" t="s">
+      <c r="F296" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7200,13 +7197,13 @@
         <v>14</v>
       </c>
       <c r="B297" s="14">
-        <v>43626.302083333336</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C297" s="14">
-        <v>43627.010416666664</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6" t="s">
@@ -7218,13 +7215,13 @@
         <v>14</v>
       </c>
       <c r="B298" s="14">
-        <v>43630.725694444445</v>
+        <v>43596.1875</v>
       </c>
       <c r="C298" s="14">
-        <v>43631.21875</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
@@ -7236,13 +7233,13 @@
         <v>14</v>
       </c>
       <c r="B299" s="14">
-        <v>43649.708333333336</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C299" s="14">
-        <v>43661.510416666664</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
@@ -7251,34 +7248,34 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B300" s="14">
-        <v>43591.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C300" s="14">
-        <v>43591.513888888891</v>
+        <v>43620.5</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E300" s="6"/>
-      <c r="F300" s="6" t="s">
+      <c r="F300" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="25">
-        <v>43592.152777777781</v>
+        <v>14</v>
+      </c>
+      <c r="B301" s="14">
+        <v>43626.302083333336</v>
       </c>
       <c r="C301" s="14">
-        <v>43592.614583333336</v>
+        <v>43627.010416666664</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
@@ -7287,16 +7284,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B302" s="14">
-        <v>43593.815972222219</v>
+        <v>43630.725694444445</v>
       </c>
       <c r="C302" s="14">
-        <v>43594.416666666664</v>
+        <v>43631.21875</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E302" s="6"/>
       <c r="F302" s="6" t="s">
@@ -7305,86 +7302,90 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B303" s="14">
-        <v>43594.850694444445</v>
+        <v>43649.708333333336</v>
       </c>
       <c r="C303" s="14">
-        <v>43594.979166666664</v>
+        <v>43661.510416666664</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B304" s="14">
-        <v>43596.1875</v>
+        <v>43591.375</v>
       </c>
       <c r="C304" s="14">
-        <v>43597.076388888891</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E304" s="6"/>
       <c r="F304" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B305" s="14">
-        <v>43601.409722222219</v>
+      <c r="B305" s="25">
+        <v>43592.152777777781</v>
       </c>
       <c r="C305" s="14">
-        <v>43601.743055555555</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B306" s="14">
-        <v>43604.423611111109</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C306" s="14">
-        <v>43634.40625</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E306" s="6"/>
       <c r="F306" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B307" s="14">
-        <v>43657.003472222219</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C307" s="14">
-        <v>43657.055555555555</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E307" s="6"/>
       <c r="F307" s="6" t="s">
         <v>63</v>
       </c>
@@ -7394,16 +7395,16 @@
         <v>15</v>
       </c>
       <c r="B308" s="14">
-        <v>43657.003472222219</v>
+        <v>43596.1875</v>
       </c>
       <c r="C308" s="14">
-        <v>43657.055555555555</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7411,103 +7412,99 @@
         <v>15</v>
       </c>
       <c r="B309" s="14">
-        <v>43657.003472222219</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C309" s="14">
-        <v>43657.055555555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B310" s="27">
-        <v>43661.048611111109</v>
-      </c>
-      <c r="C310" s="7">
-        <v>43661.163194444445</v>
+      <c r="B310" s="14">
+        <v>43604.423611111109</v>
+      </c>
+      <c r="C310" s="14">
+        <v>43634.40625</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B311" s="7">
-        <v>43663.003472222219</v>
-      </c>
-      <c r="C311" s="7">
-        <v>43663.03125</v>
+      <c r="B311" s="14">
+        <v>43657.003472222219</v>
+      </c>
+      <c r="C311" s="14">
+        <v>43657.055555555555</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E311" s="6"/>
       <c r="F311" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B312" s="7">
-        <v>43669.003472222219</v>
-      </c>
-      <c r="C312" s="7">
-        <v>43669.03125</v>
+      <c r="B312" s="14">
+        <v>43657.003472222219</v>
+      </c>
+      <c r="C312" s="14">
+        <v>43657.055555555555</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E312" s="6"/>
       <c r="F312" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="7">
-        <v>43669.71875</v>
-      </c>
-      <c r="C313" s="7">
-        <v>43669.795138888891</v>
+      <c r="B313" s="14">
+        <v>43657.003472222219</v>
+      </c>
+      <c r="C313" s="14">
+        <v>43657.055555555555</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E313" s="6"/>
       <c r="F313" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B314" s="7">
-        <v>43674.003472222219</v>
+      <c r="B314" s="27">
+        <v>43661.048611111109</v>
       </c>
       <c r="C314" s="7">
-        <v>43674.03125</v>
+        <v>43661.163194444445</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E314" s="6"/>
       <c r="F314" s="6" t="s">
         <v>65</v>
       </c>
@@ -7517,10 +7514,10 @@
         <v>15</v>
       </c>
       <c r="B315" s="7">
-        <v>43675.003472222219</v>
+        <v>43663.003472222219</v>
       </c>
       <c r="C315" s="7">
-        <v>43675.048611111109</v>
+        <v>43663.03125</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>78</v>
@@ -7535,10 +7532,10 @@
         <v>15</v>
       </c>
       <c r="B316" s="7">
-        <v>43676.003472222219</v>
+        <v>43669.003472222219</v>
       </c>
       <c r="C316" s="7">
-        <v>43676.03125</v>
+        <v>43669.03125</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>78</v>
@@ -7550,73 +7547,74 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B317" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C317" s="14">
-        <v>43591.75</v>
+        <v>15</v>
+      </c>
+      <c r="B317" s="7">
+        <v>43669.71875</v>
+      </c>
+      <c r="C317" s="7">
+        <v>43669.795138888891</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B318" s="25">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C318" s="14">
-        <v>43592.614583333336</v>
+        <v>15</v>
+      </c>
+      <c r="B318" s="7">
+        <v>43674.003472222219</v>
+      </c>
+      <c r="C318" s="7">
+        <v>43674.03125</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B319" s="14">
-        <v>43593.836805555555</v>
-      </c>
-      <c r="C319" s="14">
-        <v>43594.416666666664</v>
+        <v>15</v>
+      </c>
+      <c r="B319" s="7">
+        <v>43675.003472222219</v>
+      </c>
+      <c r="C319" s="7">
+        <v>43675.048611111109</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B320" s="14">
-        <v>43596.1875</v>
-      </c>
-      <c r="C320" s="14">
-        <v>43597.076388888891</v>
+        <v>15</v>
+      </c>
+      <c r="B320" s="7">
+        <v>43676.003472222219</v>
+      </c>
+      <c r="C320" s="7">
+        <v>43676.03125</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F320" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -7624,14 +7622,15 @@
         <v>16</v>
       </c>
       <c r="B321" s="14">
-        <v>43601.409722222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C321" s="14">
-        <v>43601.743055555555</v>
+        <v>43591.75</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E321" s="6"/>
       <c r="F321" s="6" t="s">
         <v>63</v>
       </c>
@@ -7640,15 +7639,16 @@
       <c r="A322" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B322" s="14">
-        <v>43604.423611111109</v>
+      <c r="B322" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C322" s="14">
-        <v>43605.923611111109</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
         <v>63</v>
       </c>
@@ -7658,15 +7658,16 @@
         <v>16</v>
       </c>
       <c r="B323" s="14">
-        <v>43607.1875</v>
+        <v>43593.836805555555</v>
       </c>
       <c r="C323" s="14">
-        <v>43608.715277777781</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F323" t="s">
+      <c r="E323" s="6"/>
+      <c r="F323" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7675,15 +7676,15 @@
         <v>16</v>
       </c>
       <c r="B324" s="14">
-        <v>43611.375</v>
+        <v>43596.1875</v>
       </c>
       <c r="C324" s="14">
-        <v>43612.739583333336</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F324" s="6" t="s">
+      <c r="F324" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7692,10 +7693,10 @@
         <v>16</v>
       </c>
       <c r="B325" s="14">
-        <v>43633</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C325" s="14">
-        <v>43635</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>47</v>
@@ -7709,13 +7710,13 @@
         <v>16</v>
       </c>
       <c r="B326" s="14">
-        <v>43654.003472222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C326" s="14">
-        <v>43654.013888888891</v>
+        <v>43605.923611111109</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>63</v>
@@ -7726,16 +7727,16 @@
         <v>16</v>
       </c>
       <c r="B327" s="14">
-        <v>43654.003472222219</v>
+        <v>43607.1875</v>
       </c>
       <c r="C327" s="14">
-        <v>43654.013888888891</v>
+        <v>43608.715277777781</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F327" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7743,47 +7744,47 @@
         <v>16</v>
       </c>
       <c r="B328" s="14">
-        <v>43654.003472222219</v>
+        <v>43611.375</v>
       </c>
       <c r="C328" s="14">
-        <v>43654.013888888891</v>
+        <v>43612.739583333336</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F328" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B329" s="25">
-        <v>43592.166666666664</v>
+        <v>16</v>
+      </c>
+      <c r="B329" s="14">
+        <v>43633</v>
       </c>
       <c r="C329" s="14">
-        <v>43596.621527777781</v>
+        <v>43635</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B330" s="14">
-        <v>43594.895833333336</v>
+        <v>43654.003472222219</v>
       </c>
       <c r="C330" s="14">
-        <v>43595.53125</v>
+        <v>43654.013888888891</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>63</v>
@@ -7791,52 +7792,52 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B331" s="14">
-        <v>43601.409722222219</v>
+        <v>43654.003472222219</v>
       </c>
       <c r="C331" s="14">
-        <v>43601.743055555555</v>
+        <v>43654.013888888891</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="F331" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B332" s="14">
-        <v>43604.340277777781</v>
+        <v>43654.003472222219</v>
       </c>
       <c r="C332" s="14">
-        <v>43605.552083333336</v>
+        <v>43654.013888888891</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F332" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="F332" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B333" s="14">
-        <v>43607.052083333336</v>
+      <c r="B333" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C333" s="14">
-        <v>43608.579861111109</v>
+        <v>43596.621527777781</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F333" s="6" t="s">
+      <c r="F333" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7845,100 +7846,100 @@
         <v>32</v>
       </c>
       <c r="B334" s="14">
+        <v>43594.895833333336</v>
+      </c>
+      <c r="C334" s="14">
+        <v>43595.53125</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" s="14">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C335" s="14">
+        <v>43601.743055555555</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" s="14">
+        <v>43604.340277777781</v>
+      </c>
+      <c r="C336" s="14">
+        <v>43605.552083333336</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" s="14">
+        <v>43607.052083333336</v>
+      </c>
+      <c r="C337" s="14">
+        <v>43608.579861111109</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="14">
         <v>43611.888888888891</v>
       </c>
-      <c r="C334" s="14">
+      <c r="C338" s="14">
         <v>43613.666666666664</v>
       </c>
-      <c r="D334" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F334" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B335" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C335" s="14">
-        <v>43591.590277777781</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F335" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B336" s="25">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C336" s="14">
-        <v>43592.510416666664</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F336" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B337" s="14">
-        <v>43594.895833333336</v>
-      </c>
-      <c r="C337" s="14">
-        <v>43595.53125</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F337" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B338" s="14">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C338" s="14">
-        <v>43596.621527777781</v>
-      </c>
       <c r="D338" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F338" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F338" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B339" s="14">
-        <v>43601.409722222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C339" s="14">
-        <v>43601.743055555555</v>
+        <v>43591.590277777781</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7946,11 +7947,11 @@
       <c r="A340" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B340" s="14">
-        <v>43604.423611111109</v>
+      <c r="B340" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C340" s="14">
-        <v>43605.552083333336</v>
+        <v>43592.510416666664</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>47</v>
@@ -7964,16 +7965,15 @@
         <v>17</v>
       </c>
       <c r="B341" s="14">
-        <v>43607.322916666664</v>
+        <v>43594.895833333336</v>
       </c>
       <c r="C341" s="14">
-        <v>43608.579861111109</v>
+        <v>43595.53125</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E341" s="6"/>
-      <c r="F341" s="6" t="s">
+      <c r="F341" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7982,66 +7982,63 @@
         <v>17</v>
       </c>
       <c r="B342" s="14">
-        <v>43611.375</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C342" s="14">
-        <v>43613.666666666664</v>
+        <v>43596.621527777781</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6" t="s">
+      <c r="F342" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B343" s="25">
-        <v>43592.083333333336</v>
+      <c r="A343" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B343" s="14">
+        <v>43601.409722222219</v>
       </c>
       <c r="C343" s="14">
-        <v>43596.854166666664</v>
-      </c>
-      <c r="D343" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6" t="s">
+        <v>43601.743055555555</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F343" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="15" t="s">
-        <v>33</v>
+      <c r="A344" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B344" s="14">
-        <v>43601.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C344" s="14">
-        <v>43601.743055555555</v>
-      </c>
-      <c r="D344" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6" t="s">
+        <v>43605.552083333336</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F344" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="15" t="s">
-        <v>33</v>
+      <c r="A345" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B345" s="14">
-        <v>43604.423611111109</v>
+        <v>43607.322916666664</v>
       </c>
       <c r="C345" s="14">
-        <v>43606.09375</v>
-      </c>
-      <c r="D345" s="15" t="s">
+        <v>43608.579861111109</v>
+      </c>
+      <c r="D345" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E345" s="6"/>
@@ -8050,16 +8047,16 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="15" t="s">
-        <v>33</v>
+      <c r="A346" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B346" s="14">
-        <v>43607.059027777781</v>
+        <v>43611.375</v>
       </c>
       <c r="C346" s="14">
-        <v>43608.868055555555</v>
-      </c>
-      <c r="D346" s="15" t="s">
+        <v>43613.666666666664</v>
+      </c>
+      <c r="D346" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E346" s="6"/>
@@ -8071,11 +8068,11 @@
       <c r="A347" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B347" s="14">
-        <v>43611.375</v>
+      <c r="B347" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C347" s="14">
-        <v>43612.815972222219</v>
+        <v>43596.854166666664</v>
       </c>
       <c r="D347" s="15" t="s">
         <v>47</v>
@@ -8090,10 +8087,10 @@
         <v>33</v>
       </c>
       <c r="B348" s="14">
-        <v>43634.013888888891</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C348" s="14">
-        <v>43634.506944444445</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D348" s="15" t="s">
         <v>47</v>
@@ -8104,16 +8101,16 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
-        <v>34</v>
+      <c r="A349" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B349" s="14">
-        <v>43591.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C349" s="14">
-        <v>43591.836805555555</v>
-      </c>
-      <c r="D349" s="6" t="s">
+        <v>43606.09375</v>
+      </c>
+      <c r="D349" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E349" s="6"/>
@@ -8122,16 +8119,16 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B350" s="25">
-        <v>43592.083333333336</v>
+      <c r="A350" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B350" s="14">
+        <v>43607.059027777781</v>
       </c>
       <c r="C350" s="14">
-        <v>43592.631944444445</v>
-      </c>
-      <c r="D350" s="6" t="s">
+        <v>43608.868055555555</v>
+      </c>
+      <c r="D350" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E350" s="6"/>
@@ -8140,16 +8137,16 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
-        <v>34</v>
+      <c r="A351" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B351" s="14">
-        <v>43595.104166666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C351" s="14">
-        <v>43595.649305555555</v>
-      </c>
-      <c r="D351" s="6" t="s">
+        <v>43612.815972222219</v>
+      </c>
+      <c r="D351" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E351" s="6"/>
@@ -8158,16 +8155,16 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
-        <v>34</v>
+      <c r="A352" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B352" s="14">
-        <v>43596.322916666664</v>
+        <v>43634.013888888891</v>
       </c>
       <c r="C352" s="14">
-        <v>43596.854166666664</v>
-      </c>
-      <c r="D352" s="6" t="s">
+        <v>43634.506944444445</v>
+      </c>
+      <c r="D352" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E352" s="6"/>
@@ -8180,10 +8177,10 @@
         <v>34</v>
       </c>
       <c r="B353" s="14">
-        <v>43601.333333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C353" s="14">
-        <v>43601.743055555555</v>
+        <v>43591.836805555555</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>47</v>
@@ -8197,11 +8194,11 @@
       <c r="A354" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B354" s="14">
-        <v>43604.423611111109</v>
+      <c r="B354" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C354" s="14">
-        <v>43606.09375</v>
+        <v>43592.631944444445</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>47</v>
@@ -8216,10 +8213,10 @@
         <v>34</v>
       </c>
       <c r="B355" s="14">
-        <v>43606.885416666664</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C355" s="14">
-        <v>43608.868055555555</v>
+        <v>43595.649305555555</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>47</v>
@@ -8234,10 +8231,10 @@
         <v>34</v>
       </c>
       <c r="B356" s="14">
-        <v>43611.375</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C356" s="14">
-        <v>43612.815972222219</v>
+        <v>43596.854166666664</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>47</v>
@@ -8249,13 +8246,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B357" s="14">
-        <v>43591.375</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C357" s="14">
-        <v>43591.59375</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>47</v>
@@ -8267,13 +8264,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B358" s="25">
-        <v>43592.083333333336</v>
+        <v>34</v>
+      </c>
+      <c r="B358" s="14">
+        <v>43604.423611111109</v>
       </c>
       <c r="C358" s="14">
-        <v>43592.569444444445</v>
+        <v>43606.09375</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>47</v>
@@ -8285,13 +8282,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B359" s="14">
-        <v>43595.104166666664</v>
+        <v>43606.885416666664</v>
       </c>
       <c r="C359" s="14">
-        <v>43595.534722222219</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>47</v>
@@ -8303,13 +8300,13 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B360" s="14">
-        <v>43596.322916666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C360" s="14">
-        <v>43596.84375</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>47</v>
@@ -8324,10 +8321,10 @@
         <v>35</v>
       </c>
       <c r="B361" s="14">
-        <v>43601.333333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C361" s="14">
-        <v>43601.680555555555</v>
+        <v>43591.59375</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>47</v>
@@ -8341,11 +8338,11 @@
       <c r="A362" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B362" s="14">
-        <v>43604.423611111109</v>
+      <c r="B362" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C362" s="14">
-        <v>43605.71875</v>
+        <v>43592.569444444445</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>47</v>
@@ -8360,10 +8357,10 @@
         <v>35</v>
       </c>
       <c r="B363" s="14">
-        <v>43606.090277777781</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C363" s="14">
-        <v>43606.173611111109</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>47</v>
@@ -8378,10 +8375,10 @@
         <v>35</v>
       </c>
       <c r="B364" s="14">
-        <v>43606.958333333336</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C364" s="14">
-        <v>43608.552083333336</v>
+        <v>43596.84375</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>47</v>
@@ -8396,10 +8393,10 @@
         <v>35</v>
       </c>
       <c r="B365" s="14">
-        <v>43611.375</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C365" s="14">
-        <v>43612.309027777781</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>47</v>
@@ -8411,77 +8408,85 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B366" s="14">
-        <v>43591.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C366" s="14">
-        <v>43591.520833333336</v>
-      </c>
-      <c r="D366" s="15" t="s">
+        <v>43605.71875</v>
+      </c>
+      <c r="D366" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E366" s="6"/>
-      <c r="F366" s="6"/>
+      <c r="F366" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B367" s="25">
-        <v>43592.159722222219</v>
+        <v>35</v>
+      </c>
+      <c r="B367" s="14">
+        <v>43606.090277777781</v>
       </c>
       <c r="C367" s="14">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="D367" s="15" t="s">
+        <v>43606.173611111109</v>
+      </c>
+      <c r="D367" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E367" s="6"/>
-      <c r="F367" s="6"/>
+      <c r="F367" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B368" s="14">
-        <v>43595.263888888891</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C368" s="14">
-        <v>43595.534722222219</v>
-      </c>
-      <c r="D368" s="15" t="s">
+        <v>43608.552083333336</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E368" s="6"/>
-      <c r="F368" s="6"/>
+      <c r="F368" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B369" s="14">
-        <v>43596.322916666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C369" s="14">
-        <v>43596.84375</v>
-      </c>
-      <c r="D369" s="15" t="s">
+        <v>43612.309027777781</v>
+      </c>
+      <c r="D369" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E369" s="6"/>
-      <c r="F369" s="6"/>
+      <c r="F369" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B370" s="14">
-        <v>43601.333333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C370" s="14">
-        <v>43601.680555555555</v>
+        <v>43591.520833333336</v>
       </c>
       <c r="D370" s="15" t="s">
         <v>47</v>
@@ -8493,11 +8498,11 @@
       <c r="A371" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B371" s="14">
-        <v>43604.423611111109</v>
+      <c r="B371" s="25">
+        <v>43592.159722222219</v>
       </c>
       <c r="C371" s="14">
-        <v>43605.71875</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="D371" s="15" t="s">
         <v>47</v>
@@ -8510,10 +8515,10 @@
         <v>36</v>
       </c>
       <c r="B372" s="14">
-        <v>43606.958333333336</v>
+        <v>43595.263888888891</v>
       </c>
       <c r="C372" s="14">
-        <v>43608.552083333336</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D372" s="15" t="s">
         <v>47</v>
@@ -8526,10 +8531,10 @@
         <v>36</v>
       </c>
       <c r="B373" s="14">
-        <v>43611.395833333336</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C373" s="14">
-        <v>43612.309027777781</v>
+        <v>43596.84375</v>
       </c>
       <c r="D373" s="15" t="s">
         <v>47</v>
@@ -8542,91 +8547,83 @@
         <v>36</v>
       </c>
       <c r="B374" s="14">
-        <v>43664.388888888891</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C374" s="14">
-        <v>43664.670138888891</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F374" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B375" s="7">
-        <v>43591.5</v>
-      </c>
-      <c r="C375" s="7">
-        <v>43592.041666666664</v>
-      </c>
-      <c r="D375" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B375" s="14">
+        <v>43604.423611111109</v>
+      </c>
+      <c r="C375" s="14">
+        <v>43605.71875</v>
+      </c>
+      <c r="D375" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E375" s="6"/>
-      <c r="F375" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F375" s="6"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B376" s="7">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="C376" s="7">
-        <v>43593.125</v>
-      </c>
-      <c r="D376" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B376" s="14">
+        <v>43606.958333333336</v>
+      </c>
+      <c r="C376" s="14">
+        <v>43608.552083333336</v>
+      </c>
+      <c r="D376" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E376" s="6"/>
-      <c r="F376" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F376" s="6"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B377" s="7">
-        <v>43594.114583333336</v>
-      </c>
-      <c r="C377" s="7">
-        <v>43594.541666666664</v>
-      </c>
-      <c r="D377" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B377" s="14">
+        <v>43611.395833333336</v>
+      </c>
+      <c r="C377" s="14">
+        <v>43612.309027777781</v>
+      </c>
+      <c r="D377" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E377" s="6"/>
-      <c r="F377" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F377" s="6"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B378" s="7">
-        <v>43595.083333333336</v>
-      </c>
-      <c r="C378" s="7">
-        <v>43595.3125</v>
-      </c>
-      <c r="D378" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E378" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B378" s="14">
+        <v>43664.388888888891</v>
+      </c>
+      <c r="C378" s="14">
+        <v>43664.670138888891</v>
+      </c>
+      <c r="D378" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F378" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8634,10 +8631,10 @@
         <v>37</v>
       </c>
       <c r="B379" s="7">
-        <v>43596.5</v>
+        <v>43591.5</v>
       </c>
       <c r="C379" s="7">
-        <v>43597.416666666664</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>47</v>
@@ -8652,17 +8649,17 @@
         <v>37</v>
       </c>
       <c r="B380" s="7">
-        <v>43633.25</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C380" s="7">
-        <v>43633.833333333336</v>
+        <v>43593.125</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E380" s="6"/>
       <c r="F380" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8670,17 +8667,17 @@
         <v>37</v>
       </c>
       <c r="B381" s="7">
-        <v>43645</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C381" s="7">
-        <v>43645.1875</v>
+        <v>43594.541666666664</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8688,28 +8685,28 @@
         <v>37</v>
       </c>
       <c r="B382" s="7">
-        <v>43646.020833333336</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="C382" s="7">
-        <v>43646.1875</v>
+        <v>43595.3125</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B383" s="7">
-        <v>43594.114583333336</v>
+        <v>43596.5</v>
       </c>
       <c r="C383" s="7">
-        <v>43594.291666666664</v>
+        <v>43597.416666666664</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>47</v>
@@ -8721,34 +8718,34 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B384" s="7">
-        <v>43596.541666666664</v>
+        <v>43633.25</v>
       </c>
       <c r="C384" s="7">
-        <v>43597.083333333336</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B385" s="7">
-        <v>43633.333333333336</v>
+        <v>43645</v>
       </c>
       <c r="C385" s="7">
-        <v>43633.833333333336</v>
+        <v>43645.1875</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="6" t="s">
@@ -8757,16 +8754,16 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B386" s="7">
-        <v>43641.416666666664</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="C386" s="7">
-        <v>43641.427083333336</v>
+        <v>43646.1875</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
@@ -8778,17 +8775,17 @@
         <v>38</v>
       </c>
       <c r="B387" s="7">
-        <v>43645</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C387" s="7">
-        <v>43645.1875</v>
+        <v>43594.291666666664</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8796,17 +8793,17 @@
         <v>38</v>
       </c>
       <c r="B388" s="7">
-        <v>43645.229166666664</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C388" s="7">
-        <v>43645.395833333336</v>
+        <v>43597.083333333336</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8814,89 +8811,89 @@
         <v>38</v>
       </c>
       <c r="B389" s="7">
-        <v>43660.770833333336</v>
+        <v>43633.333333333336</v>
       </c>
       <c r="C389" s="7">
-        <v>43661.513888888891</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E389" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E389" s="6"/>
       <c r="F389" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B390" s="7">
-        <v>43591.583333333336</v>
+        <v>43641.416666666664</v>
       </c>
       <c r="C390" s="7">
-        <v>43592.041666666664</v>
+        <v>43641.427083333336</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B391" s="7">
-        <v>43592.427083333336</v>
+        <v>43645</v>
       </c>
       <c r="C391" s="7">
-        <v>43593.125</v>
+        <v>43645.1875</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B392" s="7">
-        <v>43593.958333333336</v>
+        <v>43645.229166666664</v>
       </c>
       <c r="C392" s="7">
-        <v>43594.375</v>
+        <v>43645.395833333336</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B393" s="7">
-        <v>43594.833333333336</v>
+        <v>43660.770833333336</v>
       </c>
       <c r="C393" s="7">
-        <v>43595.3125</v>
+        <v>43661.513888888891</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E393" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F393" s="6" t="s">
         <v>56</v>
       </c>
@@ -8906,10 +8903,10 @@
         <v>39</v>
       </c>
       <c r="B394" s="7">
-        <v>43596.541666666664</v>
+        <v>43591.583333333336</v>
       </c>
       <c r="C394" s="7">
-        <v>43597.291666666664</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>47</v>
@@ -8921,76 +8918,74 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B395" s="7">
-        <v>43586</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C395" s="7">
-        <v>43586.847222222219</v>
+        <v>43593.125</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B396" s="7">
-        <v>43591.375</v>
+        <v>43593.958333333336</v>
       </c>
       <c r="C396" s="7">
-        <v>43591.458333333336</v>
+        <v>43594.375</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B397" s="7">
-        <v>43596.291666666664</v>
+        <v>43594.833333333336</v>
       </c>
       <c r="C397" s="7">
-        <v>43596.458333333336</v>
+        <v>43595.3125</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B398" s="7">
-        <v>43601.333333333336</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C398" s="7">
-        <v>43601.583333333336</v>
+        <v>43597.291666666664</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E398" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8998,13 +8993,13 @@
         <v>44</v>
       </c>
       <c r="B399" s="7">
-        <v>43604.291666666664</v>
+        <v>43586</v>
       </c>
       <c r="C399" s="7">
-        <v>43605.583333333336</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="6" t="s">
@@ -9016,10 +9011,10 @@
         <v>44</v>
       </c>
       <c r="B400" s="7">
-        <v>43607.25</v>
+        <v>43591.375</v>
       </c>
       <c r="C400" s="7">
-        <v>43607.541666666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>47</v>
@@ -9034,10 +9029,10 @@
         <v>44</v>
       </c>
       <c r="B401" s="7">
-        <v>43611.291666666664</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C401" s="7">
-        <v>43613</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>47</v>
@@ -9052,17 +9047,19 @@
         <v>44</v>
       </c>
       <c r="B402" s="7">
-        <v>43633.166666666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C402" s="7">
-        <v>43633.458333333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E402" s="6"/>
+      <c r="E402" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F402" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -9070,31 +9067,31 @@
         <v>44</v>
       </c>
       <c r="B403" s="7">
-        <v>43637.270833333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C403" s="7">
-        <v>43637.416666666664</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A404" s="7" t="s">
+      <c r="A404" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B404" s="7">
-        <v>43654.288194444445</v>
+        <v>43607.25</v>
       </c>
       <c r="C404" s="7">
-        <v>43654.788194444445</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
@@ -9103,110 +9100,106 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B405" s="7">
-        <v>43586</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C405" s="7">
-        <v>43586.572916666664</v>
+        <v>43613</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E405" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B406" s="7">
-        <v>43591.375</v>
+        <v>43633.166666666664</v>
       </c>
       <c r="C406" s="7">
-        <v>43591.458333333336</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B407" s="7">
-        <v>43594.875</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C407" s="7">
-        <v>43595.708333333336</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
-        <v>45</v>
+      <c r="A408" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B408" s="7">
-        <v>43596.291666666664</v>
+        <v>43654.288194444445</v>
       </c>
       <c r="C408" s="7">
-        <v>43596.458333333336</v>
+        <v>43654.788194444445</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
-        <v>45</v>
+    <row r="409" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B409" s="7">
-        <v>43598</v>
+        <v>43691.427083333336</v>
       </c>
       <c r="C409" s="7">
-        <v>43598.697916666664</v>
+        <v>43692.385416666664</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E409" s="6"/>
+        <v>129</v>
+      </c>
       <c r="F409" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
-        <v>45</v>
+    <row r="410" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B410" s="7">
-        <v>43599.479166666664</v>
+        <v>43684.361111111109</v>
       </c>
       <c r="C410" s="7">
-        <v>43600.114583333336</v>
+        <v>43685.361111111109</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E410" s="6"/>
+        <v>113</v>
+      </c>
       <c r="F410" s="6" t="s">
         <v>63</v>
       </c>
@@ -9216,15 +9209,17 @@
         <v>45</v>
       </c>
       <c r="B411" s="7">
-        <v>43601.333333333336</v>
+        <v>43586</v>
       </c>
       <c r="C411" s="7">
-        <v>43601.583333333336</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E411" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F411" s="6" t="s">
         <v>63</v>
       </c>
@@ -9234,10 +9229,10 @@
         <v>45</v>
       </c>
       <c r="B412" s="7">
-        <v>43604.291666666664</v>
+        <v>43591.375</v>
       </c>
       <c r="C412" s="7">
-        <v>43605.583333333336</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>47</v>
@@ -9252,13 +9247,13 @@
         <v>45</v>
       </c>
       <c r="B413" s="7">
-        <v>43607.25</v>
+        <v>43594.875</v>
       </c>
       <c r="C413" s="7">
-        <v>43607.541666666664</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
@@ -9270,10 +9265,10 @@
         <v>45</v>
       </c>
       <c r="B414" s="7">
-        <v>43611.291666666664</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C414" s="7">
-        <v>43613</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>47</v>
@@ -9288,19 +9283,17 @@
         <v>45</v>
       </c>
       <c r="B415" s="7">
-        <v>43655.552083333336</v>
+        <v>43598</v>
       </c>
       <c r="C415" s="7">
-        <v>43661.5625</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E415" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -9308,17 +9301,17 @@
         <v>45</v>
       </c>
       <c r="B416" s="7">
-        <v>43661.5625</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C416" s="7">
-        <v>43661.604166666664</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -9326,280 +9319,282 @@
         <v>45</v>
       </c>
       <c r="B417" s="7">
-        <v>43661.5625</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C417" s="7">
-        <v>43661.604166666664</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E417" s="6"/>
       <c r="F417" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A418" s="7" t="s">
+      <c r="A418" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B418" s="7">
-        <v>43668.784722222219</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C418" s="7">
-        <v>43669.243055555555</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E418" s="6"/>
       <c r="F418" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B419" s="7">
-        <v>43619</v>
+        <v>43607.25</v>
       </c>
       <c r="C419" s="7">
-        <v>43619.125</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E419" s="6"/>
       <c r="F419" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B420" s="7">
-        <v>43633.083333333336</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C420" s="7">
-        <v>43633.458333333336</v>
+        <v>43613</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E420" s="6"/>
       <c r="F420" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B421" s="7">
-        <v>43637</v>
+        <v>43655.552083333336</v>
       </c>
       <c r="C421" s="7">
-        <v>43641.541666666664</v>
+        <v>43661.5625</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E421" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="E421" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="F421" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B422" s="7">
-        <v>43643.291666666664</v>
+        <v>43661.5625</v>
       </c>
       <c r="C422" s="7">
-        <v>43643.666666666664</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E422" s="6"/>
       <c r="F422" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B423" s="7">
-        <v>43644.229166666664</v>
+        <v>43661.5625</v>
       </c>
       <c r="C423" s="7">
-        <v>43644.583333333336</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E423" s="6"/>
       <c r="F423" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
-        <v>46</v>
+      <c r="A424" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B424" s="7">
-        <v>43645.21875</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C424" s="7">
-        <v>43645.5625</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E424" s="6"/>
       <c r="F424" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B425" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D425" s="6"/>
-      <c r="E425" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B425" s="7">
+        <v>43619</v>
+      </c>
+      <c r="C425" s="7">
+        <v>43619.125</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E425" s="6"/>
       <c r="F425" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B426" s="7">
-        <v>43591.375</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C426" s="7">
-        <v>43592.458333333336</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B427" s="7">
-        <v>43592.125</v>
+        <v>43637</v>
       </c>
       <c r="C427" s="7">
-        <v>43594.416666666664</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E427" s="6"/>
       <c r="F427" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B428" s="7">
-        <v>43595.291666666664</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C428" s="7">
-        <v>43595.416666666664</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B429" s="7">
-        <v>43596.319444444445</v>
+        <v>43644.229166666664</v>
       </c>
       <c r="C429" s="7">
-        <v>43596.947916666664</v>
+        <v>43644.583333333336</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E429" s="6"/>
       <c r="F429" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B430" s="7">
-        <v>43601.333333333336</v>
+        <v>43645.21875</v>
       </c>
       <c r="C430" s="7">
-        <v>43601.854166666664</v>
+        <v>43645.5625</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E430" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E430" s="6"/>
       <c r="F430" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F431" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B431" s="7">
-        <v>43604.083333333336</v>
-      </c>
-      <c r="C431" s="7">
-        <v>43605.1875</v>
-      </c>
-      <c r="D431" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E431" s="6"/>
-      <c r="F431" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B432" s="7">
-        <v>43605.190972222219</v>
-      </c>
-      <c r="C432" s="7">
-        <v>43616.999305555553</v>
-      </c>
-      <c r="D432" s="6" t="s">
-        <v>74</v>
+      <c r="B432" s="32">
+        <v>43591.375</v>
+      </c>
+      <c r="C432" s="32">
+        <v>43592.458333333336</v>
+      </c>
+      <c r="D432" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6" t="s">
@@ -9607,197 +9602,193 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B433" s="7">
-        <v>43637.270833333336</v>
-      </c>
-      <c r="C433" s="7">
-        <v>43605.3125</v>
-      </c>
-      <c r="D433" s="6" t="s">
-        <v>47</v>
+      <c r="B433" s="32">
+        <v>43592.125</v>
+      </c>
+      <c r="C433" s="32">
+        <v>43594.416666666664</v>
+      </c>
+      <c r="D433" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="E433" s="6"/>
       <c r="F433" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B434" s="7">
-        <v>43647.996527777781</v>
-      </c>
-      <c r="C434" s="7">
-        <v>43648.013888888891</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>78</v>
+      <c r="B434" s="32">
+        <v>43595.291666666664</v>
+      </c>
+      <c r="C434" s="32">
+        <v>43595.416666666664</v>
+      </c>
+      <c r="D434" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="E434" s="6"/>
       <c r="F434" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B435" s="7">
-        <v>43657.378472222219</v>
-      </c>
-      <c r="C435" s="7">
-        <v>43657.697916666664</v>
-      </c>
-      <c r="D435" s="6" t="s">
-        <v>78</v>
+      <c r="B435" s="32">
+        <v>43596.319444444445</v>
+      </c>
+      <c r="C435" s="32">
+        <v>43596.947916666664</v>
+      </c>
+      <c r="D435" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B436" s="7">
-        <v>43659</v>
-      </c>
-      <c r="C436" s="7">
-        <v>43659.166666666664</v>
-      </c>
-      <c r="D436" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E436" s="6"/>
+      <c r="B436" s="32">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C436" s="32">
+        <v>43601.854166666664</v>
+      </c>
+      <c r="D436" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E436" s="3"/>
       <c r="F436" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B437" s="7">
-        <v>43660.010416666664</v>
-      </c>
-      <c r="C437" s="7">
-        <v>43660.177083333336</v>
-      </c>
-      <c r="D437" s="6" t="s">
-        <v>78</v>
+      <c r="B437" s="32">
+        <v>43604.083333333336</v>
+      </c>
+      <c r="C437" s="32">
+        <v>43605.1875</v>
+      </c>
+      <c r="D437" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="E437" s="6"/>
       <c r="F437" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B438" s="7">
-        <v>43660.996527777781</v>
-      </c>
-      <c r="C438" s="7">
-        <v>43661.163194444445</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>78</v>
+      <c r="B438" s="32">
+        <v>43604.083333333336</v>
+      </c>
+      <c r="C438" s="32">
+        <v>43633.6875</v>
+      </c>
+      <c r="D438" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="E438" s="6"/>
       <c r="F438" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B439" s="7">
-        <v>43663.006944444445</v>
-      </c>
-      <c r="C439" s="7">
-        <v>43663.173611111109</v>
-      </c>
-      <c r="D439" s="6" t="s">
-        <v>78</v>
+      <c r="B439" s="32">
+        <v>43637.270833333336</v>
+      </c>
+      <c r="C439" s="32">
+        <v>43637.479166666664</v>
+      </c>
+      <c r="D439" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="E439" s="6"/>
       <c r="F439" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B440" s="7">
-        <v>43665.996527777781</v>
-      </c>
-      <c r="C440" s="7">
-        <v>43666.163194444445</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>78</v>
+      <c r="B440" s="32">
+        <v>43663.302083333336</v>
+      </c>
+      <c r="C440" s="32">
+        <v>43665.5625</v>
+      </c>
+      <c r="D440" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
+      <c r="A441" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B441" s="7">
-        <v>43666.371527777781</v>
-      </c>
-      <c r="C441" s="7">
-        <v>43666.454861111109</v>
-      </c>
-      <c r="D441" s="6" t="s">
-        <v>78</v>
+      <c r="B441" s="32">
+        <v>43668.850694444445</v>
+      </c>
+      <c r="C441" s="32">
+        <v>43669.267361111109</v>
+      </c>
+      <c r="D441" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A442" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B442" s="7">
-        <v>43668.850694444445</v>
-      </c>
-      <c r="C442" s="7">
-        <v>43669.267361111109</v>
-      </c>
-      <c r="D442" s="6" t="s">
+      <c r="B442" s="32">
+        <v>43675.892361111109</v>
+      </c>
+      <c r="C442" s="32">
+        <v>43676.225694444445</v>
+      </c>
+      <c r="D442" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E442" s="6"/>
-      <c r="F442" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="7" t="s">
-        <v>18</v>
+      <c r="A443" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B443" s="7">
-        <v>43675.892361111109</v>
+        <v>43575</v>
       </c>
       <c r="C443" s="7">
-        <v>43676.225694444445</v>
+        <v>43593.75</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E443" s="6"/>
       <c r="F443" s="6" t="s">
@@ -9809,13 +9800,13 @@
         <v>26</v>
       </c>
       <c r="B444" s="7">
-        <v>43575</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C444" s="7">
-        <v>43593.75</v>
+        <v>43595.375</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E444" s="6"/>
       <c r="F444" s="6" t="s">
@@ -9827,10 +9818,10 @@
         <v>26</v>
       </c>
       <c r="B445" s="7">
-        <v>43594.965277777781</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C445" s="7">
-        <v>43595.375</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>47</v>
@@ -9841,14 +9832,14 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="6" t="s">
+      <c r="A446" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B446" s="7">
-        <v>43596.395833333336</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C446" s="7">
-        <v>43596.517361111109</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>47</v>
@@ -9863,10 +9854,10 @@
         <v>26</v>
       </c>
       <c r="B447" s="7">
-        <v>43601.420138888891</v>
+        <v>43604.4375</v>
       </c>
       <c r="C447" s="7">
-        <v>43601.604166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>47</v>
@@ -9881,10 +9872,10 @@
         <v>26</v>
       </c>
       <c r="B448" s="7">
-        <v>43604.4375</v>
+        <v>43604.875</v>
       </c>
       <c r="C448" s="7">
-        <v>43604.638888888891</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>47</v>
@@ -9899,10 +9890,10 @@
         <v>26</v>
       </c>
       <c r="B449" s="7">
-        <v>43604.875</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C449" s="7">
-        <v>43605.569444444445</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>47</v>
@@ -9916,11 +9907,11 @@
       <c r="A450" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B450" s="7">
-        <v>43607.239583333336</v>
-      </c>
-      <c r="C450" s="7">
-        <v>43607.354166666664</v>
+      <c r="B450" s="22">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C450" s="22">
+        <v>43612.34375</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>47</v>
@@ -9935,10 +9926,10 @@
         <v>26</v>
       </c>
       <c r="B451" s="22">
-        <v>43611.885416666664</v>
+        <v>43637.208333333336</v>
       </c>
       <c r="C451" s="22">
-        <v>43612.34375</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>47</v>
@@ -9949,14 +9940,14 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B452" s="22">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C452" s="22">
-        <v>43637.416666666664</v>
+      <c r="A452" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B452" s="7">
+        <v>43591.333333333336</v>
+      </c>
+      <c r="C452" s="7">
+        <v>43591.479166666664</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>47</v>
@@ -9971,10 +9962,10 @@
         <v>19</v>
       </c>
       <c r="B453" s="7">
-        <v>43591.333333333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C453" s="7">
-        <v>43591.479166666664</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>47</v>
@@ -9989,10 +9980,10 @@
         <v>19</v>
       </c>
       <c r="B454" s="7">
-        <v>43592.173611111109</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C454" s="7">
-        <v>43592.288194444445</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>47</v>
@@ -10007,10 +9998,10 @@
         <v>19</v>
       </c>
       <c r="B455" s="7">
-        <v>43595.041666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C455" s="7">
-        <v>43595.322916666664</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>47</v>
@@ -10025,10 +10016,10 @@
         <v>19</v>
       </c>
       <c r="B456" s="7">
-        <v>43596.270833333336</v>
+        <v>43601.40625</v>
       </c>
       <c r="C456" s="7">
-        <v>43596.534722222219</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>47</v>
@@ -10043,10 +10034,10 @@
         <v>19</v>
       </c>
       <c r="B457" s="7">
-        <v>43601.40625</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C457" s="7">
-        <v>43601.565972222219</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>47</v>
@@ -10061,10 +10052,10 @@
         <v>19</v>
       </c>
       <c r="B458" s="7">
-        <v>43604.416666666664</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C458" s="7">
-        <v>43605.368055555555</v>
+        <v>43607.875</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>47</v>
@@ -10079,10 +10070,10 @@
         <v>19</v>
       </c>
       <c r="B459" s="7">
-        <v>43606.951388888891</v>
+        <v>43611.9375</v>
       </c>
       <c r="C459" s="7">
-        <v>43607.875</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>47</v>
@@ -10097,17 +10088,17 @@
         <v>19</v>
       </c>
       <c r="B460" s="7">
-        <v>43611.9375</v>
+        <v>43652</v>
       </c>
       <c r="C460" s="7">
-        <v>43612.111111111109</v>
+        <v>43652.166666666664</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -10115,10 +10106,10 @@
         <v>19</v>
       </c>
       <c r="B461" s="7">
-        <v>43652</v>
+        <v>43655.163194444445</v>
       </c>
       <c r="C461" s="7">
-        <v>43652.166666666664</v>
+        <v>43655.381944444445</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>78</v>
@@ -10133,10 +10124,10 @@
         <v>19</v>
       </c>
       <c r="B462" s="7">
-        <v>43655.163194444445</v>
+        <v>43656.013888888891</v>
       </c>
       <c r="C462" s="7">
-        <v>43655.381944444445</v>
+        <v>43656.180555555555</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>78</v>
@@ -10151,10 +10142,10 @@
         <v>19</v>
       </c>
       <c r="B463" s="7">
-        <v>43656.013888888891</v>
+        <v>43657.006944444445</v>
       </c>
       <c r="C463" s="7">
-        <v>43656.180555555555</v>
+        <v>43657.173611111109</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>78</v>
@@ -10169,10 +10160,10 @@
         <v>19</v>
       </c>
       <c r="B464" s="7">
-        <v>43657.006944444445</v>
+        <v>43660.006944444445</v>
       </c>
       <c r="C464" s="7">
-        <v>43657.173611111109</v>
+        <v>43660.173611111109</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>78</v>
@@ -10187,10 +10178,10 @@
         <v>19</v>
       </c>
       <c r="B465" s="7">
-        <v>43660.006944444445</v>
+        <v>43663</v>
       </c>
       <c r="C465" s="7">
-        <v>43660.173611111109</v>
+        <v>43663.166666666664</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>78</v>
@@ -10205,10 +10196,10 @@
         <v>19</v>
       </c>
       <c r="B466" s="7">
-        <v>43663</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C466" s="7">
-        <v>43663.166666666664</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>78</v>
@@ -10223,10 +10214,10 @@
         <v>19</v>
       </c>
       <c r="B467" s="7">
-        <v>43666.013888888891</v>
+        <v>43668.229166666664</v>
       </c>
       <c r="C467" s="7">
-        <v>43666.180555555555</v>
+        <v>43668.388888888891</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>78</v>
@@ -10238,20 +10229,20 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B468" s="7">
-        <v>43668.229166666664</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C468" s="7">
-        <v>43668.388888888891</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -10259,10 +10250,10 @@
         <v>20</v>
       </c>
       <c r="B469" s="7">
-        <v>43591.409722222219</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C469" s="7">
-        <v>43592.583333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>47</v>
@@ -10277,10 +10268,10 @@
         <v>20</v>
       </c>
       <c r="B470" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C470" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D470" s="6" t="s">
         <v>47</v>
@@ -10295,10 +10286,10 @@
         <v>20</v>
       </c>
       <c r="B471" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C471" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D471" s="6" t="s">
         <v>47</v>
@@ -10313,10 +10304,10 @@
         <v>20</v>
       </c>
       <c r="B472" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C472" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>47</v>
@@ -10331,10 +10322,10 @@
         <v>20</v>
       </c>
       <c r="B473" s="7">
-        <v>43601.440972222219</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C473" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>47</v>
@@ -10349,10 +10340,10 @@
         <v>20</v>
       </c>
       <c r="B474" s="7">
-        <v>43604.440972222219</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C474" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>47</v>
@@ -10367,17 +10358,17 @@
         <v>20</v>
       </c>
       <c r="B475" s="7">
-        <v>43610.291666666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C475" s="7">
-        <v>43612.25</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E475" s="6"/>
       <c r="F475" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -10385,10 +10376,10 @@
         <v>20</v>
       </c>
       <c r="B476" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C476" s="7">
-        <v>43633.833333333336</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>47</v>
@@ -10403,13 +10394,13 @@
         <v>20</v>
       </c>
       <c r="B477" s="7">
-        <v>43637.104166666664</v>
+        <v>43646</v>
       </c>
       <c r="C477" s="7">
-        <v>43637.791666666664</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E477" s="6"/>
       <c r="F477" s="6" t="s">
@@ -10421,17 +10412,17 @@
         <v>20</v>
       </c>
       <c r="B478" s="7">
-        <v>43646</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C478" s="7">
-        <v>43646.020833333336</v>
+        <v>43647.559027777781</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10439,10 +10430,10 @@
         <v>20</v>
       </c>
       <c r="B479" s="7">
-        <v>43647.392361111109</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C479" s="7">
-        <v>43647.559027777781</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>78</v>
@@ -10457,10 +10448,10 @@
         <v>20</v>
       </c>
       <c r="B480" s="7">
-        <v>43649.385416666664</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C480" s="7">
-        <v>43649.552083333336</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>78</v>
@@ -10475,10 +10466,10 @@
         <v>20</v>
       </c>
       <c r="B481" s="7">
-        <v>43655.010416666664</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C481" s="7">
-        <v>43655.177083333336</v>
+        <v>43665.180555555555</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>78</v>
@@ -10493,10 +10484,10 @@
         <v>20</v>
       </c>
       <c r="B482" s="7">
-        <v>43665.013888888891</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C482" s="7">
-        <v>43665.180555555555</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>78</v>
@@ -10511,10 +10502,10 @@
         <v>20</v>
       </c>
       <c r="B483" s="7">
-        <v>43666.013888888891</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C483" s="7">
-        <v>43666.180555555555</v>
+        <v>43668.177083333336</v>
       </c>
       <c r="D483" s="6" t="s">
         <v>78</v>
@@ -10529,10 +10520,10 @@
         <v>20</v>
       </c>
       <c r="B484" s="7">
-        <v>43668.010416666664</v>
+        <v>43669</v>
       </c>
       <c r="C484" s="7">
-        <v>43668.177083333336</v>
+        <v>43669.006944444445</v>
       </c>
       <c r="D484" s="6" t="s">
         <v>78</v>
@@ -10547,10 +10538,10 @@
         <v>20</v>
       </c>
       <c r="B485" s="7">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C485" s="7">
-        <v>43669.006944444445</v>
+        <v>43670.006944444445</v>
       </c>
       <c r="D485" s="6" t="s">
         <v>78</v>
@@ -10565,10 +10556,10 @@
         <v>20</v>
       </c>
       <c r="B486" s="7">
-        <v>43670</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C486" s="7">
-        <v>43670.006944444445</v>
+        <v>43670.711805555555</v>
       </c>
       <c r="D486" s="6" t="s">
         <v>78</v>
@@ -10580,20 +10571,20 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B487" s="7">
-        <v>43670.545138888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C487" s="7">
-        <v>43670.711805555555</v>
+        <v>43591.78125</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E487" s="6"/>
       <c r="F487" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10601,10 +10592,10 @@
         <v>25</v>
       </c>
       <c r="B488" s="7">
-        <v>43591.375</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C488" s="7">
-        <v>43591.78125</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D488" s="6" t="s">
         <v>47</v>
@@ -10619,16 +10610,15 @@
         <v>25</v>
       </c>
       <c r="B489" s="7">
-        <v>43592.166666666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C489" s="7">
-        <v>43592.579861111109</v>
+        <v>43595.4375</v>
       </c>
       <c r="D489" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E489" s="6"/>
-      <c r="F489" s="6" t="s">
+      <c r="F489" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10637,15 +10627,15 @@
         <v>25</v>
       </c>
       <c r="B490" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C490" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F490" t="s">
+      <c r="F490" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10654,10 +10644,10 @@
         <v>25</v>
       </c>
       <c r="B491" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C491" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D491" s="6" t="s">
         <v>47</v>
@@ -10671,15 +10661,15 @@
         <v>25</v>
       </c>
       <c r="B492" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C492" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D492" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F492" s="6" t="s">
+      <c r="F492" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10688,14 +10678,15 @@
         <v>25</v>
       </c>
       <c r="B493" s="7">
-        <v>43601.388888888891</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C493" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D493" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E493" s="6"/>
       <c r="F493" t="s">
         <v>63</v>
       </c>
@@ -10705,16 +10696,16 @@
         <v>25</v>
       </c>
       <c r="B494" s="7">
-        <v>43604.350694444445</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C494" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E494" s="6"/>
-      <c r="F494" t="s">
+      <c r="F494" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10723,13 +10714,13 @@
         <v>25</v>
       </c>
       <c r="B495" s="7">
-        <v>43611.892361111109</v>
+        <v>43616.208333333336</v>
       </c>
       <c r="C495" s="7">
-        <v>43612.25</v>
+        <v>43616.701388888891</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E495" s="6"/>
       <c r="F495" s="6" t="s">
@@ -10741,17 +10732,17 @@
         <v>25</v>
       </c>
       <c r="B496" s="7">
-        <v>43616.208333333336</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C496" s="7">
-        <v>43616.701388888891</v>
+        <v>43633.791666666664</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E496" s="6"/>
-      <c r="F496" s="6" t="s">
-        <v>63</v>
+      <c r="F496" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10759,34 +10750,16 @@
         <v>25</v>
       </c>
       <c r="B497" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C497" s="7">
-        <v>43633.791666666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D497" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E497" s="6"/>
       <c r="F497" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A498" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B498" s="7">
-        <v>43637.104166666664</v>
-      </c>
-      <c r="C498" s="7">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D498" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E498" s="6"/>
-      <c r="F498" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10807,8 +10780,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11090,7 +11063,9 @@
       <c r="A34" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11111,7 +11086,9 @@
       <c r="A37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$495</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$497</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="132">
   <si>
     <t>Site</t>
   </si>
@@ -321,9 +321,6 @@
     <t>debris- confirmed by game cam</t>
   </si>
   <si>
-    <t>Data Dropouts</t>
-  </si>
-  <si>
     <t>Data Missing. Potentially due to connection issues from logger.</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>High flow 8/30 confirmed by game cam</t>
+  </si>
+  <si>
+    <t>Large sustained flow 8/15 for about 8 hours, with increased TDS</t>
   </si>
 </sst>
 </file>
@@ -939,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>63</v>
@@ -1432,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1443,47 +1443,41 @@
         <v>43739</v>
       </c>
       <c r="D23" s="6">
-        <v>3.1</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7">
-        <v>43662.503472222219</v>
-      </c>
-      <c r="C24" s="7">
-        <v>43739</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>-0.15</v>
+      </c>
+      <c r="F24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E25" s="18">
-        <v>-0.15</v>
+        <v>-0.05</v>
       </c>
       <c r="F25" s="5" t="b">
         <v>1</v>
@@ -1494,10 +1488,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="18">
-        <v>-0.05</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D26">
+        <v>-0.18</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>1</v>
@@ -1506,33 +1506,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43678</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43723.996527777781</v>
-      </c>
-      <c r="D27">
-        <v>-0.18</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="18"/>
+        <v>41</v>
+      </c>
       <c r="F28" s="5" t="b">
         <v>1</v>
       </c>
@@ -1542,30 +1533,38 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="5" t="b">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43633.586805555555</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43723.999305555553</v>
+      </c>
+      <c r="D29">
+        <v>-0.7</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43633.586805555555</v>
-      </c>
-      <c r="C30" s="1">
-        <v>43723.999305555553</v>
-      </c>
-      <c r="D30">
-        <v>-0.7</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6">
+        <v>0</v>
       </c>
       <c r="E30" s="18">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F30" s="19" t="b">
         <v>1</v>
@@ -1576,17 +1575,12 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="F31" s="19" t="b">
+      <c r="E31" s="18"/>
+      <c r="F31" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -1595,7 +1589,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1604,49 +1598,46 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="5" t="b">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="F33" s="19" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="F34" s="19" t="b">
+      <c r="E34" s="18"/>
+      <c r="F34" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="18"/>
+        <v>17</v>
+      </c>
       <c r="F35" s="5" t="b">
         <v>1</v>
       </c>
@@ -1654,20 +1645,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1679,34 +1673,39 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="18"/>
+        <v>35</v>
+      </c>
       <c r="F38" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.2</v>
       </c>
       <c r="F40" s="5" t="b">
         <v>1</v>
@@ -1715,56 +1714,58 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="F41" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
-      <c r="F42" s="5" t="b">
-        <v>1</v>
+      <c r="F42" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C43" s="7">
+        <v>43586.84375</v>
+      </c>
       <c r="D43" s="6"/>
-      <c r="F43" s="5" t="s">
-        <v>57</v>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7">
         <v>43586</v>
@@ -1772,144 +1773,144 @@
       <c r="C44" s="7">
         <v>43586.84375</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E44" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F44" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="7">
-        <v>43586</v>
+        <v>43647.489583333336</v>
       </c>
       <c r="C45" s="7">
-        <v>43586.84375</v>
+        <v>43661.625</v>
       </c>
       <c r="D45" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E45" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="5"/>
       <c r="H45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="7">
-        <v>43647.489583333336</v>
+        <v>43661.628472222219</v>
       </c>
       <c r="C46" s="7">
-        <v>43661.625</v>
+        <v>43677.996527777781</v>
       </c>
       <c r="D46" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="5"/>
-      <c r="H46" s="6" t="s">
+        <v>0.65</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7">
-        <v>43661.628472222219</v>
-      </c>
-      <c r="C47" s="7">
-        <v>43677.996527777781</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.65</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F47" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="G47" s="6"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B48" s="7">
+        <v>43592.649305555598</v>
+      </c>
+      <c r="C48" s="7">
+        <v>43594.708333333299</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
       <c r="E48" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="6"/>
       <c r="H48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="32">
+        <v>43633.604166666664</v>
+      </c>
+      <c r="C49" s="32">
+        <v>43738.996527777781</v>
+      </c>
+      <c r="D49" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="33">
+        <v>0</v>
+      </c>
+      <c r="F49" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C50" s="7">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="7">
-        <v>43592.649305555598</v>
-      </c>
-      <c r="C49" s="7">
-        <v>43594.708333333299</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="32">
-        <v>43633.604166666664</v>
-      </c>
-      <c r="C50" s="32">
-        <v>43738.996527777781</v>
-      </c>
-      <c r="D50" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="33">
-        <v>0</v>
-      </c>
-      <c r="F50" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1917,62 +1918,55 @@
         <v>26</v>
       </c>
       <c r="B51" s="7">
-        <v>43586</v>
+        <v>43592.770833333299</v>
       </c>
       <c r="C51" s="7">
-        <v>43592.770833333299</v>
+        <v>43593.708333333336</v>
       </c>
       <c r="D51" s="6">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="F51" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G51" s="6"/>
-      <c r="H51" t="s">
+      <c r="H51" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="7">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="C52" s="7">
-        <v>43593.708333333336</v>
-      </c>
-      <c r="D52" s="6">
-        <v>3.5</v>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="E52" s="18">
+        <v>0.25</v>
       </c>
       <c r="F52" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="E53" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="E53" s="18"/>
       <c r="F53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1981,39 +1975,25 @@
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
-      <c r="E55" s="18"/>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
       <c r="F55" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="18">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2029,11 +2009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268:XFD272"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217:XFD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,7 +2041,7 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2273,7 +2253,7 @@
         <v>43647.659722222219</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>65</v>
@@ -2481,7 +2461,7 @@
         <v>43647.583333333336</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>65</v>
@@ -2498,7 +2478,7 @@
         <v>43647.618055555555</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>63</v>
@@ -2698,7 +2678,7 @@
         <v>43647.614583333336</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>65</v>
@@ -2999,7 +2979,7 @@
         <v>43707.704861111109</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>63</v>
@@ -3494,7 +3474,7 @@
         <v>43658.364583333336</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>65</v>
@@ -4319,7 +4299,7 @@
         <v>43668.5625</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F130" t="s">
         <v>65</v>
@@ -4370,7 +4350,7 @@
         <v>43676.263888888891</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>65</v>
@@ -4387,7 +4367,7 @@
         <v>43678</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" t="s">
@@ -4530,10 +4510,10 @@
         <v>43659.791666666664</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F142" t="s">
         <v>65</v>
@@ -4550,7 +4530,7 @@
         <v>43677.881944444445</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F143" t="s">
         <v>65</v>
@@ -5639,7 +5619,7 @@
         <v>43604.423611111109</v>
       </c>
       <c r="C206" s="7">
-        <v>43646.999305555553</v>
+        <v>43662.5</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>82</v>
@@ -5666,34 +5646,34 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B208" s="7">
-        <v>43665.020833333336</v>
+        <v>43666.75</v>
       </c>
       <c r="C208" s="7">
-        <v>43665.177083333336</v>
+        <v>43667.083333333336</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B209" s="7">
-        <v>43666.020833333336</v>
+        <v>43669.052083333336</v>
       </c>
       <c r="C209" s="7">
-        <v>43666.177083333336</v>
+        <v>43669.15625</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>65</v>
@@ -5704,10 +5684,10 @@
         <v>9</v>
       </c>
       <c r="B210" s="7">
-        <v>43666.75</v>
+        <v>43669.503472222219</v>
       </c>
       <c r="C210" s="7">
-        <v>43667.083333333336</v>
+        <v>43670.583333333336</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>95</v>
@@ -5721,10 +5701,10 @@
         <v>9</v>
       </c>
       <c r="B211" s="7">
-        <v>43669.052083333336</v>
+        <v>43671.625</v>
       </c>
       <c r="C211" s="7">
-        <v>43669.15625</v>
+        <v>43671.788194444445</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>95</v>
@@ -5738,10 +5718,10 @@
         <v>9</v>
       </c>
       <c r="B212" s="7">
-        <v>43669.503472222219</v>
+        <v>43675.649305555555</v>
       </c>
       <c r="C212" s="7">
-        <v>43670.583333333336</v>
+        <v>43676.010416666664</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>95</v>
@@ -5755,16 +5735,16 @@
         <v>9</v>
       </c>
       <c r="B213" s="7">
-        <v>43671.625</v>
+        <v>43690</v>
       </c>
       <c r="C213" s="7">
-        <v>43671.788194444445</v>
+        <v>43691.5</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5772,50 +5752,50 @@
         <v>9</v>
       </c>
       <c r="B214" s="7">
-        <v>43675.649305555555</v>
+        <v>43697.100694444445</v>
       </c>
       <c r="C214" s="7">
-        <v>43676.010416666664</v>
+        <v>43704.100694444445</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B215" s="7">
-        <v>43591.291666666664</v>
+        <v>43708.791666666664</v>
       </c>
       <c r="C215" s="7">
-        <v>43591.5</v>
+        <v>43709</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B216" s="7">
-        <v>43592.125</v>
+        <v>43712.614583333336</v>
       </c>
       <c r="C216" s="7">
-        <v>43592.416666666664</v>
+        <v>43713</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5823,10 +5803,10 @@
         <v>10</v>
       </c>
       <c r="B217" s="7">
-        <v>43595.125</v>
+        <v>43591.291666666664</v>
       </c>
       <c r="C217" s="7">
-        <v>43595.375</v>
+        <v>43591.5</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>47</v>
@@ -5840,10 +5820,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="7">
-        <v>43596.25</v>
+        <v>43592.125</v>
       </c>
       <c r="C218" s="7">
-        <v>43596.71875</v>
+        <v>43592.416666666664</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>47</v>
@@ -5857,16 +5837,16 @@
         <v>10</v>
       </c>
       <c r="B219" s="7">
-        <v>43601.416666666664</v>
+        <v>43595.125</v>
       </c>
       <c r="C219" s="7">
-        <v>43601.625</v>
+        <v>43595.375</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5874,16 +5854,16 @@
         <v>10</v>
       </c>
       <c r="B220" s="7">
-        <v>43604.423611111109</v>
+        <v>43596.25</v>
       </c>
       <c r="C220" s="7">
-        <v>43604.666666666664</v>
+        <v>43596.71875</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5891,10 +5871,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="7">
-        <v>43604.9375</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C221" s="7">
-        <v>43605.75</v>
+        <v>43601.625</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>47</v>
@@ -5908,10 +5888,10 @@
         <v>10</v>
       </c>
       <c r="B222" s="7">
-        <v>43607.333333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C222" s="7">
-        <v>43607.916666666664</v>
+        <v>43604.666666666664</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>47</v>
@@ -5925,10 +5905,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="7">
-        <v>43608.520833333336</v>
+        <v>43604.9375</v>
       </c>
       <c r="C223" s="7">
-        <v>43608.854166666664</v>
+        <v>43605.75</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>47</v>
@@ -5942,10 +5922,10 @@
         <v>10</v>
       </c>
       <c r="B224" s="7">
-        <v>43611.375</v>
+        <v>43607.333333333336</v>
       </c>
       <c r="C224" s="7">
-        <v>43612.395833333336</v>
+        <v>43607.916666666664</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>47</v>
@@ -5956,36 +5936,36 @@
     </row>
     <row r="225" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B225" s="7">
-        <v>43591.395833333336</v>
+        <v>43608.520833333336</v>
       </c>
       <c r="C225" s="7">
-        <v>43591.989583333336</v>
+        <v>43608.854166666664</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B226" s="7">
-        <v>43592.166666666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C226" s="7">
-        <v>43593.5</v>
+        <v>43612.395833333336</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5993,10 +5973,10 @@
         <v>11</v>
       </c>
       <c r="B227" s="7">
-        <v>43595.270833333336</v>
+        <v>43591.395833333336</v>
       </c>
       <c r="C227" s="7">
-        <v>43595.583333333336</v>
+        <v>43591.989583333336</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>47</v>
@@ -6010,10 +5990,10 @@
         <v>11</v>
       </c>
       <c r="B228" s="7">
-        <v>43596.333333333336</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C228" s="7">
-        <v>43597.958333333336</v>
+        <v>43593.5</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>47</v>
@@ -6027,16 +6007,16 @@
         <v>11</v>
       </c>
       <c r="B229" s="7">
-        <v>43601.416666666664</v>
+        <v>43595.270833333336</v>
       </c>
       <c r="C229" s="7">
-        <v>43602.166666666664</v>
+        <v>43595.583333333336</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6044,16 +6024,16 @@
         <v>11</v>
       </c>
       <c r="B230" s="7">
-        <v>43604.416666666664</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C230" s="7">
-        <v>43606.5</v>
+        <v>43597.958333333336</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6041,10 @@
         <v>11</v>
       </c>
       <c r="B231" s="7">
-        <v>43607.222222222219</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C231" s="7">
-        <v>43608.958333333336</v>
+        <v>43602.166666666664</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>47</v>
@@ -6078,10 +6058,10 @@
         <v>11</v>
       </c>
       <c r="B232" s="7">
-        <v>43611.375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C232" s="7">
-        <v>43613.416666666664</v>
+        <v>43606.5</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>47</v>
@@ -6092,16 +6072,16 @@
     </row>
     <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B233" s="7">
-        <v>43586</v>
+        <v>43607.222222222219</v>
       </c>
       <c r="C233" s="7">
-        <v>43589.5</v>
+        <v>43608.958333333336</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>63</v>
@@ -6109,19 +6089,19 @@
     </row>
     <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B234" s="7">
-        <v>43591.402777777781</v>
+        <v>43611.375</v>
       </c>
       <c r="C234" s="7">
-        <v>43591.708333333336</v>
+        <v>43613.416666666664</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6129,16 +6109,16 @@
         <v>12</v>
       </c>
       <c r="B235" s="7">
-        <v>43592.166666666664</v>
+        <v>43586</v>
       </c>
       <c r="C235" s="7">
-        <v>43592.625</v>
+        <v>43589.5</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6146,10 +6126,10 @@
         <v>12</v>
       </c>
       <c r="B236" s="7">
-        <v>43593.833333333336</v>
+        <v>43591.402777777781</v>
       </c>
       <c r="C236" s="7">
-        <v>43594.041666666664</v>
+        <v>43591.708333333336</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>47</v>
@@ -6163,10 +6143,10 @@
         <v>12</v>
       </c>
       <c r="B237" s="7">
-        <v>43594.875</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C237" s="7">
-        <v>43595.020833333336</v>
+        <v>43592.625</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>47</v>
@@ -6180,10 +6160,10 @@
         <v>12</v>
       </c>
       <c r="B238" s="7">
-        <v>43596.333333333336</v>
+        <v>43593.833333333336</v>
       </c>
       <c r="C238" s="7">
-        <v>43596.666666666664</v>
+        <v>43594.041666666664</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>47</v>
@@ -6197,16 +6177,16 @@
         <v>12</v>
       </c>
       <c r="B239" s="7">
-        <v>43601.416666666664</v>
+        <v>43594.875</v>
       </c>
       <c r="C239" s="7">
-        <v>43602.166666666664</v>
+        <v>43595.020833333336</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6214,16 +6194,16 @@
         <v>12</v>
       </c>
       <c r="B240" s="7">
-        <v>43604.416666666664</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C240" s="7">
-        <v>43606.5</v>
+        <v>43596.666666666664</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6231,10 +6211,10 @@
         <v>12</v>
       </c>
       <c r="B241" s="7">
-        <v>43607.222222222219</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C241" s="7">
-        <v>43608.958333333336</v>
+        <v>43602.166666666664</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>47</v>
@@ -6248,10 +6228,10 @@
         <v>12</v>
       </c>
       <c r="B242" s="7">
-        <v>43611.375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C242" s="7">
-        <v>43612.5</v>
+        <v>43606.5</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>47</v>
@@ -6262,13 +6242,13 @@
     </row>
     <row r="243" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B243" s="7">
-        <v>43591.378472222197</v>
+        <v>43607.222222222219</v>
       </c>
       <c r="C243" s="7">
-        <v>43591.565972222219</v>
+        <v>43608.958333333336</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>47</v>
@@ -6279,13 +6259,13 @@
     </row>
     <row r="244" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B244" s="7">
-        <v>43592.125</v>
+        <v>43611.375</v>
       </c>
       <c r="C244" s="7">
-        <v>43592.5</v>
+        <v>43612.5</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>47</v>
@@ -6299,10 +6279,10 @@
         <v>40</v>
       </c>
       <c r="B245" s="7">
-        <v>43595.180555555555</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C245" s="7">
-        <v>43595.375</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>47</v>
@@ -6316,10 +6296,10 @@
         <v>40</v>
       </c>
       <c r="B246" s="7">
-        <v>43596.34375</v>
+        <v>43592.125</v>
       </c>
       <c r="C246" s="7">
-        <v>43596.8125</v>
+        <v>43592.5</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>47</v>
@@ -6333,10 +6313,10 @@
         <v>40</v>
       </c>
       <c r="B247" s="7">
-        <v>43601.333333333336</v>
+        <v>43595.180555555555</v>
       </c>
       <c r="C247" s="7">
-        <v>43601.784722222219</v>
+        <v>43595.375</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>47</v>
@@ -6350,10 +6330,10 @@
         <v>40</v>
       </c>
       <c r="B248" s="7">
-        <v>43604.427083333336</v>
+        <v>43596.34375</v>
       </c>
       <c r="C248" s="7">
-        <v>43605.708333333336</v>
+        <v>43596.8125</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>47</v>
@@ -6367,10 +6347,10 @@
         <v>40</v>
       </c>
       <c r="B249" s="7">
-        <v>43607.229166666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C249" s="7">
-        <v>43608.65625</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>47</v>
@@ -6384,10 +6364,10 @@
         <v>40</v>
       </c>
       <c r="B250" s="7">
-        <v>43611.850694444445</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C250" s="7">
-        <v>43612.572916666664</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>47</v>
@@ -6401,13 +6381,13 @@
         <v>40</v>
       </c>
       <c r="B251" s="7">
-        <v>43633.53125</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C251" s="7">
-        <v>43634.041666666664</v>
+        <v>43608.65625</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>63</v>
@@ -6418,30 +6398,30 @@
         <v>40</v>
       </c>
       <c r="B252" s="7">
-        <v>43664.25</v>
+        <v>43611.850694444445</v>
       </c>
       <c r="C252" s="7">
-        <v>43671</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B253" s="7">
-        <v>43591.378472222197</v>
+        <v>43633.53125</v>
       </c>
       <c r="C253" s="7">
-        <v>43591.565972222219</v>
+        <v>43634.041666666664</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>63</v>
@@ -6449,19 +6429,19 @@
     </row>
     <row r="254" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B254" s="7">
-        <v>43592.125</v>
+        <v>43664.25</v>
       </c>
       <c r="C254" s="7">
-        <v>43592.5</v>
+        <v>43671</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6469,10 +6449,10 @@
         <v>41</v>
       </c>
       <c r="B255" s="7">
-        <v>43593.885416666664</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C255" s="7">
-        <v>43594.239583333336</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>47</v>
@@ -6486,10 +6466,10 @@
         <v>41</v>
       </c>
       <c r="B256" s="7">
-        <v>43595.197916666664</v>
+        <v>43592.125</v>
       </c>
       <c r="C256" s="7">
-        <v>43595.548611111109</v>
+        <v>43592.5</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>47</v>
@@ -6498,38 +6478,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B257" s="7">
-        <v>43596.34375</v>
+        <v>43593.885416666664</v>
       </c>
       <c r="C257" s="7">
-        <v>43596.8125</v>
+        <v>43594.239583333336</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E257" s="6"/>
-      <c r="F257" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F257" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B258" s="7">
-        <v>43601.416666666664</v>
+        <v>43595.197916666664</v>
       </c>
       <c r="C258" s="7">
-        <v>43601.784722222219</v>
+        <v>43595.548611111109</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E258" s="6"/>
       <c r="F258" s="6" t="s">
         <v>63</v>
       </c>
@@ -6539,16 +6517,16 @@
         <v>41</v>
       </c>
       <c r="B259" s="7">
-        <v>43604.427083333336</v>
+        <v>43596.34375</v>
       </c>
       <c r="C259" s="7">
-        <v>43605.708333333336</v>
+        <v>43596.8125</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E259" s="6"/>
-      <c r="F259" s="6" t="s">
+      <c r="F259" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6557,10 +6535,10 @@
         <v>41</v>
       </c>
       <c r="B260" s="7">
-        <v>43607.229166666664</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C260" s="7">
-        <v>43608.65625</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>47</v>
@@ -6575,10 +6553,10 @@
         <v>41</v>
       </c>
       <c r="B261" s="7">
-        <v>43611.395833333336</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C261" s="7">
-        <v>43612.572916666664</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>47</v>
@@ -6593,10 +6571,10 @@
         <v>41</v>
       </c>
       <c r="B262" s="7">
-        <v>43633.135416666664</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C262" s="7">
-        <v>43633.677083333336</v>
+        <v>43608.65625</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>47</v>
@@ -6608,16 +6586,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B263" s="7">
-        <v>43586</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C263" s="7">
-        <v>43598.270833333336</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E263" s="6"/>
       <c r="F263" s="6" t="s">
@@ -6626,19 +6604,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B264" s="7">
-        <v>43601.375</v>
+        <v>43633.135416666664</v>
       </c>
       <c r="C264" s="7">
-        <v>43601.875</v>
+        <v>43633.677083333336</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E264" s="6"/>
-      <c r="F264" t="s">
+      <c r="F264" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6647,13 +6625,13 @@
         <v>13</v>
       </c>
       <c r="B265" s="7">
-        <v>43604.416666666664</v>
+        <v>43586</v>
       </c>
       <c r="C265" s="7">
-        <v>43606.083333333336</v>
+        <v>43598.270833333336</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6" t="s">
@@ -6665,16 +6643,16 @@
         <v>13</v>
       </c>
       <c r="B266" s="7">
-        <v>43606.916666666664</v>
+        <v>43601.375</v>
       </c>
       <c r="C266" s="7">
-        <v>43608.625</v>
+        <v>43601.875</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E266" s="6"/>
-      <c r="F266" s="6" t="s">
+      <c r="F266" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6683,10 +6661,10 @@
         <v>13</v>
       </c>
       <c r="B267" s="7">
-        <v>43611.291666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C267" s="7">
-        <v>43612.5</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>47</v>
@@ -6696,32 +6674,40 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="7" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B268" s="7">
-        <v>43636.6875</v>
+        <v>43606.916666666664</v>
       </c>
       <c r="C268" s="7">
-        <v>43636.938888888886</v>
+        <v>43608.625</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B269" s="7">
-        <v>43638.147222222222</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C269" s="7">
-        <v>43638.563888888886</v>
+        <v>43612.5</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>107</v>
+        <v>47</v>
+      </c>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6729,13 +6715,13 @@
         <v>13</v>
       </c>
       <c r="B270" s="7">
-        <v>43639.022222222222</v>
+        <v>43636.6875</v>
       </c>
       <c r="C270" s="7">
-        <v>43639.355555555558</v>
+        <v>43636.938888888886</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6743,13 +6729,13 @@
         <v>13</v>
       </c>
       <c r="B271" s="7">
-        <v>43639.647222222222</v>
+        <v>43638.147222222222</v>
       </c>
       <c r="C271" s="7">
-        <v>43640.109722222223</v>
+        <v>43638.563888888886</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6757,63 +6743,55 @@
         <v>13</v>
       </c>
       <c r="B272" s="7">
-        <v>43644.277083333334</v>
+        <v>43639.022222222222</v>
       </c>
       <c r="C272" s="7">
-        <v>43644.943749999999</v>
+        <v>43639.355555555558</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B273" s="7">
-        <v>43612.5</v>
+        <v>43639.647222222222</v>
       </c>
       <c r="C273" s="7">
-        <v>43633.586805555555</v>
+        <v>43640.109722222223</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B274" s="7">
-        <v>43647.863194444442</v>
+        <v>43644.277083333334</v>
       </c>
       <c r="C274" s="7">
-        <v>43653.038194444445</v>
+        <v>43644.943749999999</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B275" s="7">
-        <v>43653.996527777781</v>
+        <v>43612.5</v>
       </c>
       <c r="C275" s="7">
-        <v>43654.954861111109</v>
+        <v>43633.586805555555</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6" t="s">
@@ -6825,49 +6803,51 @@
         <v>13</v>
       </c>
       <c r="B276" s="7">
-        <v>43655.288194444445</v>
+        <v>43647.863194444442</v>
       </c>
       <c r="C276" s="7">
-        <v>43663.472222222219</v>
+        <v>43653.038194444445</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B277" s="7">
-        <v>43677.729166666664</v>
+        <v>43653.996527777781</v>
       </c>
       <c r="C277" s="7">
-        <v>43678.395833333336</v>
+        <v>43654.954861111109</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E277" s="6"/>
       <c r="F277" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B278" s="7">
-        <v>43678.680555555555</v>
+        <v>43655.288194444445</v>
       </c>
       <c r="C278" s="7">
-        <v>43680.055555555555</v>
+        <v>43663.472222222219</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E278" s="6"/>
       <c r="F278" s="6" t="s">
         <v>63</v>
       </c>
@@ -6877,13 +6857,13 @@
         <v>13</v>
       </c>
       <c r="B279" s="7">
-        <v>43685.638888888891</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="C279" s="7">
-        <v>43685.888888888891</v>
+        <v>43678.395833333336</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>63</v>
@@ -6894,13 +6874,13 @@
         <v>13</v>
       </c>
       <c r="B280" s="7">
-        <v>43689.347222222219</v>
+        <v>43678.680555555555</v>
       </c>
       <c r="C280" s="7">
-        <v>43691.541666666664</v>
+        <v>43680.055555555555</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F280" s="6" t="s">
         <v>63</v>
@@ -6911,13 +6891,13 @@
         <v>13</v>
       </c>
       <c r="B281" s="7">
-        <v>43694.847222222219</v>
+        <v>43685.638888888891</v>
       </c>
       <c r="C281" s="7">
-        <v>43698.020833333336</v>
+        <v>43685.888888888891</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F281" s="6" t="s">
         <v>63</v>
@@ -6928,52 +6908,50 @@
         <v>13</v>
       </c>
       <c r="B282" s="7">
+        <v>43689.347222222219</v>
+      </c>
+      <c r="C282" s="7">
+        <v>43691.541666666664</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="7">
+        <v>43694.847222222219</v>
+      </c>
+      <c r="C283" s="7">
+        <v>43698.020833333336</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="7">
         <v>43703.472222222219</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C284" s="7">
         <v>43706.6875</v>
       </c>
-      <c r="D282" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F282" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B283" s="7">
-        <v>43591.21875</v>
-      </c>
-      <c r="C283" s="7">
-        <v>43591.791666666664</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B284" s="7">
-        <v>43592.135416666664</v>
-      </c>
-      <c r="C284" s="7">
-        <v>43592.791666666664</v>
-      </c>
       <c r="D284" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E284" s="6"/>
-      <c r="F284" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6981,10 +6959,10 @@
         <v>27</v>
       </c>
       <c r="B285" s="7">
-        <v>43593.270833333336</v>
+        <v>43591.21875</v>
       </c>
       <c r="C285" s="7">
-        <v>43593.416666666664</v>
+        <v>43591.791666666664</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>47</v>
@@ -6999,16 +6977,16 @@
         <v>27</v>
       </c>
       <c r="B286" s="7">
-        <v>43593.822916666664</v>
+        <v>43592.135416666664</v>
       </c>
       <c r="C286" s="7">
-        <v>43594.375</v>
+        <v>43592.791666666664</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E286" s="6"/>
-      <c r="F286" s="6" t="s">
+      <c r="F286" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7017,10 +6995,10 @@
         <v>27</v>
       </c>
       <c r="B287" s="7">
-        <v>43594.854166666664</v>
+        <v>43593.270833333336</v>
       </c>
       <c r="C287" s="7">
-        <v>43595.083333333336</v>
+        <v>43593.416666666664</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>47</v>
@@ -7035,10 +7013,10 @@
         <v>27</v>
       </c>
       <c r="B288" s="7">
-        <v>43595.239583333336</v>
+        <v>43593.822916666664</v>
       </c>
       <c r="C288" s="7">
-        <v>43595.333333333336</v>
+        <v>43594.375</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>47</v>
@@ -7053,10 +7031,10 @@
         <v>27</v>
       </c>
       <c r="B289" s="7">
-        <v>43596.333333333336</v>
+        <v>43594.854166666664</v>
       </c>
       <c r="C289" s="7">
-        <v>43596.888888888898</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>47</v>
@@ -7071,17 +7049,17 @@
         <v>27</v>
       </c>
       <c r="B290" s="7">
-        <v>43601.375</v>
+        <v>43595.239583333336</v>
       </c>
       <c r="C290" s="7">
-        <v>43601.875</v>
+        <v>43595.333333333336</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E290" s="6"/>
       <c r="F290" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -7089,17 +7067,17 @@
         <v>27</v>
       </c>
       <c r="B291" s="7">
-        <v>43604.416666666664</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C291" s="7">
-        <v>43606.083333333336</v>
+        <v>43596.888888888898</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E291" s="6"/>
-      <c r="F291" t="s">
-        <v>63</v>
+      <c r="F291" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -7107,16 +7085,16 @@
         <v>27</v>
       </c>
       <c r="B292" s="7">
-        <v>43606.916666666664</v>
+        <v>43601.375</v>
       </c>
       <c r="C292" s="7">
-        <v>43608.625</v>
+        <v>43601.875</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E292" s="6"/>
-      <c r="F292" t="s">
+      <c r="F292" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7125,10 +7103,10 @@
         <v>27</v>
       </c>
       <c r="B293" s="7">
-        <v>43611.291666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C293" s="7">
-        <v>43612.5</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>47</v>
@@ -7140,37 +7118,37 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B294" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C294" s="14">
-        <v>43591.513888888891</v>
+        <v>27</v>
+      </c>
+      <c r="B294" s="7">
+        <v>43606.916666666664</v>
+      </c>
+      <c r="C294" s="7">
+        <v>43608.625</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E294" s="6"/>
-      <c r="F294" s="6" t="s">
+      <c r="F294" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B295" s="25">
-        <v>43592.152777777781</v>
-      </c>
-      <c r="C295" s="14">
-        <v>43592.614583333336</v>
+        <v>27</v>
+      </c>
+      <c r="B295" s="7">
+        <v>43611.291666666664</v>
+      </c>
+      <c r="C295" s="7">
+        <v>43612.5</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E295" s="6"/>
-      <c r="F295" s="6" t="s">
+      <c r="F295" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7179,10 +7157,10 @@
         <v>14</v>
       </c>
       <c r="B296" s="14">
-        <v>43593.815972222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C296" s="14">
-        <v>43594.416666666664</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>47</v>
@@ -7196,11 +7174,11 @@
       <c r="A297" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B297" s="14">
-        <v>43594.850694444445</v>
+      <c r="B297" s="25">
+        <v>43592.152777777781</v>
       </c>
       <c r="C297" s="14">
-        <v>43594.979166666664</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>47</v>
@@ -7215,10 +7193,10 @@
         <v>14</v>
       </c>
       <c r="B298" s="14">
-        <v>43596.1875</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C298" s="14">
-        <v>43597.076388888891</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>47</v>
@@ -7233,10 +7211,10 @@
         <v>14</v>
       </c>
       <c r="B299" s="14">
-        <v>43601.409722222219</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C299" s="14">
-        <v>43601.743055555555</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>47</v>
@@ -7251,16 +7229,16 @@
         <v>14</v>
       </c>
       <c r="B300" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.1875</v>
       </c>
       <c r="C300" s="14">
-        <v>43620.5</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E300" s="6"/>
-      <c r="F300" t="s">
+      <c r="F300" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7269,13 +7247,13 @@
         <v>14</v>
       </c>
       <c r="B301" s="14">
-        <v>43626.302083333336</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C301" s="14">
-        <v>43627.010416666664</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
@@ -7287,16 +7265,16 @@
         <v>14</v>
       </c>
       <c r="B302" s="14">
-        <v>43630.725694444445</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C302" s="14">
-        <v>43631.21875</v>
+        <v>43620.5</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E302" s="6"/>
-      <c r="F302" s="6" t="s">
+      <c r="F302" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7305,13 +7283,13 @@
         <v>14</v>
       </c>
       <c r="B303" s="14">
-        <v>43649.708333333336</v>
+        <v>43626.302083333336</v>
       </c>
       <c r="C303" s="14">
-        <v>43661.510416666664</v>
+        <v>43627.010416666664</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6" t="s">
@@ -7320,16 +7298,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B304" s="14">
-        <v>43591.375</v>
+        <v>43630.725694444445</v>
       </c>
       <c r="C304" s="14">
-        <v>43591.513888888891</v>
+        <v>43631.21875</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E304" s="6"/>
       <c r="F304" s="6" t="s">
@@ -7338,16 +7316,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="25">
-        <v>43592.152777777781</v>
+        <v>14</v>
+      </c>
+      <c r="B305" s="14">
+        <v>43649.708333333336</v>
       </c>
       <c r="C305" s="14">
-        <v>43592.614583333336</v>
+        <v>43661.510416666664</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
@@ -7359,10 +7337,10 @@
         <v>15</v>
       </c>
       <c r="B306" s="14">
-        <v>43593.815972222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C306" s="14">
-        <v>43594.416666666664</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>47</v>
@@ -7376,11 +7354,11 @@
       <c r="A307" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B307" s="14">
-        <v>43594.850694444445</v>
+      <c r="B307" s="25">
+        <v>43592.152777777781</v>
       </c>
       <c r="C307" s="14">
-        <v>43594.979166666664</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>47</v>
@@ -7390,36 +7368,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B308" s="14">
-        <v>43596.1875</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C308" s="14">
-        <v>43597.076388888891</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E308" s="6"/>
       <c r="F308" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B309" s="14">
-        <v>43601.409722222219</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C309" s="14">
-        <v>43601.743055555555</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E309" s="6"/>
       <c r="F309" s="6" t="s">
         <v>63</v>
       </c>
@@ -7429,13 +7409,13 @@
         <v>15</v>
       </c>
       <c r="B310" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.1875</v>
       </c>
       <c r="C310" s="14">
-        <v>43634.40625</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>63</v>
@@ -7446,13 +7426,13 @@
         <v>15</v>
       </c>
       <c r="B311" s="14">
-        <v>43657.003472222219</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C311" s="14">
-        <v>43657.055555555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>63</v>
@@ -7463,16 +7443,16 @@
         <v>15</v>
       </c>
       <c r="B312" s="14">
-        <v>43657.003472222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C312" s="14">
-        <v>43657.055555555555</v>
+        <v>43634.40625</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7489,58 +7469,56 @@
         <v>78</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B314" s="27">
-        <v>43661.048611111109</v>
-      </c>
-      <c r="C314" s="7">
-        <v>43661.163194444445</v>
+      <c r="B314" s="14">
+        <v>43657.003472222219</v>
+      </c>
+      <c r="C314" s="14">
+        <v>43657.055555555555</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B315" s="7">
-        <v>43663.003472222219</v>
-      </c>
-      <c r="C315" s="7">
-        <v>43663.03125</v>
+      <c r="B315" s="14">
+        <v>43657.003472222219</v>
+      </c>
+      <c r="C315" s="14">
+        <v>43657.055555555555</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E315" s="6"/>
       <c r="F315" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B316" s="7">
-        <v>43669.003472222219</v>
+      <c r="B316" s="27">
+        <v>43661.048611111109</v>
       </c>
       <c r="C316" s="7">
-        <v>43669.03125</v>
+        <v>43661.163194444445</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E316" s="6"/>
       <c r="F316" s="6" t="s">
         <v>65</v>
       </c>
@@ -7550,10 +7528,10 @@
         <v>15</v>
       </c>
       <c r="B317" s="7">
-        <v>43669.71875</v>
+        <v>43663.003472222219</v>
       </c>
       <c r="C317" s="7">
-        <v>43669.795138888891</v>
+        <v>43663.03125</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>78</v>
@@ -7568,10 +7546,10 @@
         <v>15</v>
       </c>
       <c r="B318" s="7">
-        <v>43674.003472222219</v>
+        <v>43669.003472222219</v>
       </c>
       <c r="C318" s="7">
-        <v>43674.03125</v>
+        <v>43669.03125</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>78</v>
@@ -7586,10 +7564,10 @@
         <v>15</v>
       </c>
       <c r="B319" s="7">
-        <v>43675.003472222219</v>
+        <v>43669.71875</v>
       </c>
       <c r="C319" s="7">
-        <v>43675.048611111109</v>
+        <v>43669.795138888891</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>78</v>
@@ -7604,10 +7582,10 @@
         <v>15</v>
       </c>
       <c r="B320" s="7">
-        <v>43676.003472222219</v>
+        <v>43674.003472222219</v>
       </c>
       <c r="C320" s="7">
-        <v>43676.03125</v>
+        <v>43674.03125</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>78</v>
@@ -7619,38 +7597,38 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B321" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C321" s="14">
-        <v>43591.75</v>
+        <v>15</v>
+      </c>
+      <c r="B321" s="7">
+        <v>43675.003472222219</v>
+      </c>
+      <c r="C321" s="7">
+        <v>43675.048611111109</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B322" s="25">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C322" s="14">
-        <v>43592.614583333336</v>
+        <v>15</v>
+      </c>
+      <c r="B322" s="7">
+        <v>43676.003472222219</v>
+      </c>
+      <c r="C322" s="7">
+        <v>43676.03125</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -7658,10 +7636,10 @@
         <v>16</v>
       </c>
       <c r="B323" s="14">
-        <v>43593.836805555555</v>
+        <v>43591.375</v>
       </c>
       <c r="C323" s="14">
-        <v>43594.416666666664</v>
+        <v>43591.75</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>47</v>
@@ -7675,16 +7653,17 @@
       <c r="A324" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B324" s="14">
-        <v>43596.1875</v>
+      <c r="B324" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C324" s="14">
-        <v>43597.076388888891</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F324" t="s">
+      <c r="E324" s="6"/>
+      <c r="F324" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7693,14 +7672,15 @@
         <v>16</v>
       </c>
       <c r="B325" s="14">
-        <v>43601.409722222219</v>
+        <v>43593.836805555555</v>
       </c>
       <c r="C325" s="14">
-        <v>43601.743055555555</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E325" s="6"/>
       <c r="F325" s="6" t="s">
         <v>63</v>
       </c>
@@ -7710,15 +7690,15 @@
         <v>16</v>
       </c>
       <c r="B326" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.1875</v>
       </c>
       <c r="C326" s="14">
-        <v>43605.923611111109</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F326" s="6" t="s">
+      <c r="F326" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7727,15 +7707,15 @@
         <v>16</v>
       </c>
       <c r="B327" s="14">
-        <v>43607.1875</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C327" s="14">
-        <v>43608.715277777781</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7744,10 +7724,10 @@
         <v>16</v>
       </c>
       <c r="B328" s="14">
-        <v>43611.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C328" s="14">
-        <v>43612.739583333336</v>
+        <v>43605.923611111109</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>47</v>
@@ -7761,15 +7741,15 @@
         <v>16</v>
       </c>
       <c r="B329" s="14">
-        <v>43633</v>
+        <v>43607.1875</v>
       </c>
       <c r="C329" s="14">
-        <v>43635</v>
+        <v>43608.715277777781</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F329" s="6" t="s">
+      <c r="F329" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7778,13 +7758,13 @@
         <v>16</v>
       </c>
       <c r="B330" s="14">
-        <v>43654.003472222219</v>
+        <v>43611.375</v>
       </c>
       <c r="C330" s="14">
-        <v>43654.013888888891</v>
+        <v>43612.739583333336</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>63</v>
@@ -7795,16 +7775,16 @@
         <v>16</v>
       </c>
       <c r="B331" s="14">
-        <v>43654.003472222219</v>
+        <v>43633</v>
       </c>
       <c r="C331" s="14">
-        <v>43654.013888888891</v>
+        <v>43635</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F331" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7820,58 +7800,58 @@
       <c r="D332" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F332" t="s">
-        <v>65</v>
+      <c r="F332" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B333" s="25">
-        <v>43592.166666666664</v>
+        <v>16</v>
+      </c>
+      <c r="B333" s="14">
+        <v>43654.003472222219</v>
       </c>
       <c r="C333" s="14">
-        <v>43596.621527777781</v>
+        <v>43654.013888888891</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F333" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B334" s="14">
-        <v>43594.895833333336</v>
+        <v>43654.003472222219</v>
       </c>
       <c r="C334" s="14">
-        <v>43595.53125</v>
+        <v>43654.013888888891</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F334" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="F334" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B335" s="14">
-        <v>43601.409722222219</v>
+      <c r="B335" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C335" s="14">
-        <v>43601.743055555555</v>
+        <v>43596.621527777781</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F335" s="6" t="s">
+      <c r="F335" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7880,10 +7860,10 @@
         <v>32</v>
       </c>
       <c r="B336" s="14">
-        <v>43604.340277777781</v>
+        <v>43594.895833333336</v>
       </c>
       <c r="C336" s="14">
-        <v>43605.552083333336</v>
+        <v>43595.53125</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>47</v>
@@ -7897,10 +7877,10 @@
         <v>32</v>
       </c>
       <c r="B337" s="14">
-        <v>43607.052083333336</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C337" s="14">
-        <v>43608.579861111109</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>47</v>
@@ -7914,66 +7894,66 @@
         <v>32</v>
       </c>
       <c r="B338" s="14">
+        <v>43604.340277777781</v>
+      </c>
+      <c r="C338" s="14">
+        <v>43605.552083333336</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="14">
+        <v>43607.052083333336</v>
+      </c>
+      <c r="C339" s="14">
+        <v>43608.579861111109</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="14">
         <v>43611.888888888891</v>
       </c>
-      <c r="C338" s="14">
+      <c r="C340" s="14">
         <v>43613.666666666664</v>
       </c>
-      <c r="D338" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F338" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B339" s="14">
-        <v>43591.375</v>
-      </c>
-      <c r="C339" s="14">
-        <v>43591.590277777781</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F339" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B340" s="25">
-        <v>43592.166666666664</v>
-      </c>
-      <c r="C340" s="14">
-        <v>43592.510416666664</v>
-      </c>
       <c r="D340" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F340" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F340" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B341" s="14">
-        <v>43594.895833333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C341" s="14">
-        <v>43595.53125</v>
+        <v>43591.590277777781</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7981,11 +7961,11 @@
       <c r="A342" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B342" s="14">
-        <v>43596.322916666664</v>
+      <c r="B342" s="25">
+        <v>43592.166666666664</v>
       </c>
       <c r="C342" s="14">
-        <v>43596.621527777781</v>
+        <v>43592.510416666664</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>47</v>
@@ -7999,10 +7979,10 @@
         <v>17</v>
       </c>
       <c r="B343" s="14">
-        <v>43601.409722222219</v>
+        <v>43594.895833333336</v>
       </c>
       <c r="C343" s="14">
-        <v>43601.743055555555</v>
+        <v>43595.53125</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>47</v>
@@ -8016,10 +7996,10 @@
         <v>17</v>
       </c>
       <c r="B344" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C344" s="14">
-        <v>43605.552083333336</v>
+        <v>43596.621527777781</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>47</v>
@@ -8033,16 +8013,15 @@
         <v>17</v>
       </c>
       <c r="B345" s="14">
-        <v>43607.322916666664</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C345" s="14">
-        <v>43608.579861111109</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E345" s="6"/>
-      <c r="F345" s="6" t="s">
+      <c r="F345" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8051,30 +8030,29 @@
         <v>17</v>
       </c>
       <c r="B346" s="14">
-        <v>43611.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C346" s="14">
-        <v>43613.666666666664</v>
+        <v>43605.552083333336</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E346" s="6"/>
-      <c r="F346" s="6" t="s">
+      <c r="F346" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B347" s="25">
-        <v>43592.083333333336</v>
+      <c r="A347" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B347" s="14">
+        <v>43607.322916666664</v>
       </c>
       <c r="C347" s="14">
-        <v>43596.854166666664</v>
-      </c>
-      <c r="D347" s="15" t="s">
+        <v>43608.579861111109</v>
+      </c>
+      <c r="D347" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E347" s="6"/>
@@ -8083,16 +8061,16 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="15" t="s">
-        <v>33</v>
+      <c r="A348" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B348" s="14">
-        <v>43601.333333333336</v>
+        <v>43611.375</v>
       </c>
       <c r="C348" s="14">
-        <v>43601.743055555555</v>
-      </c>
-      <c r="D348" s="15" t="s">
+        <v>43613.666666666664</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E348" s="6"/>
@@ -8104,11 +8082,11 @@
       <c r="A349" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B349" s="14">
-        <v>43604.423611111109</v>
+      <c r="B349" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C349" s="14">
-        <v>43606.09375</v>
+        <v>43596.854166666664</v>
       </c>
       <c r="D349" s="15" t="s">
         <v>47</v>
@@ -8123,10 +8101,10 @@
         <v>33</v>
       </c>
       <c r="B350" s="14">
-        <v>43607.059027777781</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C350" s="14">
-        <v>43608.868055555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D350" s="15" t="s">
         <v>47</v>
@@ -8141,10 +8119,10 @@
         <v>33</v>
       </c>
       <c r="B351" s="14">
-        <v>43611.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C351" s="14">
-        <v>43612.815972222219</v>
+        <v>43606.09375</v>
       </c>
       <c r="D351" s="15" t="s">
         <v>47</v>
@@ -8159,10 +8137,10 @@
         <v>33</v>
       </c>
       <c r="B352" s="14">
-        <v>43634.013888888891</v>
+        <v>43607.059027777781</v>
       </c>
       <c r="C352" s="14">
-        <v>43634.506944444445</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D352" s="15" t="s">
         <v>47</v>
@@ -8173,16 +8151,16 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
-        <v>34</v>
+      <c r="A353" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B353" s="14">
-        <v>43591.375</v>
+        <v>43611.375</v>
       </c>
       <c r="C353" s="14">
-        <v>43591.836805555555</v>
-      </c>
-      <c r="D353" s="6" t="s">
+        <v>43612.815972222219</v>
+      </c>
+      <c r="D353" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E353" s="6"/>
@@ -8191,16 +8169,16 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B354" s="25">
-        <v>43592.083333333336</v>
+      <c r="A354" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" s="14">
+        <v>43634.013888888891</v>
       </c>
       <c r="C354" s="14">
-        <v>43592.631944444445</v>
-      </c>
-      <c r="D354" s="6" t="s">
+        <v>43634.506944444445</v>
+      </c>
+      <c r="D354" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E354" s="6"/>
@@ -8213,10 +8191,10 @@
         <v>34</v>
       </c>
       <c r="B355" s="14">
-        <v>43595.104166666664</v>
+        <v>43591.375</v>
       </c>
       <c r="C355" s="14">
-        <v>43595.649305555555</v>
+        <v>43591.836805555555</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>47</v>
@@ -8230,11 +8208,11 @@
       <c r="A356" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B356" s="14">
-        <v>43596.322916666664</v>
+      <c r="B356" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C356" s="14">
-        <v>43596.854166666664</v>
+        <v>43592.631944444445</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>47</v>
@@ -8249,10 +8227,10 @@
         <v>34</v>
       </c>
       <c r="B357" s="14">
-        <v>43601.333333333336</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C357" s="14">
-        <v>43601.743055555555</v>
+        <v>43595.649305555555</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>47</v>
@@ -8267,10 +8245,10 @@
         <v>34</v>
       </c>
       <c r="B358" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C358" s="14">
-        <v>43606.09375</v>
+        <v>43596.854166666664</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>47</v>
@@ -8285,10 +8263,10 @@
         <v>34</v>
       </c>
       <c r="B359" s="14">
-        <v>43606.885416666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C359" s="14">
-        <v>43608.868055555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>47</v>
@@ -8303,10 +8281,10 @@
         <v>34</v>
       </c>
       <c r="B360" s="14">
-        <v>43611.375</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C360" s="14">
-        <v>43612.815972222219</v>
+        <v>43606.09375</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>47</v>
@@ -8318,13 +8296,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B361" s="14">
-        <v>43591.375</v>
+        <v>43606.885416666664</v>
       </c>
       <c r="C361" s="14">
-        <v>43591.59375</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>47</v>
@@ -8336,13 +8314,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B362" s="25">
-        <v>43592.083333333336</v>
+        <v>34</v>
+      </c>
+      <c r="B362" s="14">
+        <v>43611.375</v>
       </c>
       <c r="C362" s="14">
-        <v>43592.569444444445</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>47</v>
@@ -8357,10 +8335,10 @@
         <v>35</v>
       </c>
       <c r="B363" s="14">
-        <v>43595.104166666664</v>
+        <v>43591.375</v>
       </c>
       <c r="C363" s="14">
-        <v>43595.534722222219</v>
+        <v>43591.59375</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>47</v>
@@ -8374,11 +8352,11 @@
       <c r="A364" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B364" s="14">
-        <v>43596.322916666664</v>
+      <c r="B364" s="25">
+        <v>43592.083333333336</v>
       </c>
       <c r="C364" s="14">
-        <v>43596.84375</v>
+        <v>43592.569444444445</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>47</v>
@@ -8393,10 +8371,10 @@
         <v>35</v>
       </c>
       <c r="B365" s="14">
-        <v>43601.333333333336</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C365" s="14">
-        <v>43601.680555555555</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>47</v>
@@ -8411,10 +8389,10 @@
         <v>35</v>
       </c>
       <c r="B366" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C366" s="14">
-        <v>43605.71875</v>
+        <v>43596.84375</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>47</v>
@@ -8429,10 +8407,10 @@
         <v>35</v>
       </c>
       <c r="B367" s="14">
-        <v>43606.090277777781</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C367" s="14">
-        <v>43606.173611111109</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>47</v>
@@ -8447,10 +8425,10 @@
         <v>35</v>
       </c>
       <c r="B368" s="14">
-        <v>43606.958333333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C368" s="14">
-        <v>43608.552083333336</v>
+        <v>43605.71875</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>47</v>
@@ -8465,10 +8443,10 @@
         <v>35</v>
       </c>
       <c r="B369" s="14">
-        <v>43611.375</v>
+        <v>43606.090277777781</v>
       </c>
       <c r="C369" s="14">
-        <v>43612.309027777781</v>
+        <v>43606.173611111109</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>47</v>
@@ -8480,45 +8458,49 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B370" s="14">
-        <v>43591.375</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C370" s="14">
-        <v>43591.520833333336</v>
-      </c>
-      <c r="D370" s="15" t="s">
+        <v>43608.552083333336</v>
+      </c>
+      <c r="D370" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E370" s="6"/>
-      <c r="F370" s="6"/>
+      <c r="F370" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B371" s="25">
-        <v>43592.159722222219</v>
+        <v>35</v>
+      </c>
+      <c r="B371" s="14">
+        <v>43611.375</v>
       </c>
       <c r="C371" s="14">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="D371" s="15" t="s">
+        <v>43612.309027777781</v>
+      </c>
+      <c r="D371" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E371" s="6"/>
-      <c r="F371" s="6"/>
+      <c r="F371" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B372" s="14">
-        <v>43595.263888888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C372" s="14">
-        <v>43595.534722222219</v>
+        <v>43591.520833333336</v>
       </c>
       <c r="D372" s="15" t="s">
         <v>47</v>
@@ -8530,11 +8512,11 @@
       <c r="A373" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B373" s="14">
-        <v>43596.322916666664</v>
+      <c r="B373" s="25">
+        <v>43592.159722222219</v>
       </c>
       <c r="C373" s="14">
-        <v>43596.84375</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="D373" s="15" t="s">
         <v>47</v>
@@ -8547,10 +8529,10 @@
         <v>36</v>
       </c>
       <c r="B374" s="14">
-        <v>43601.333333333336</v>
+        <v>43595.263888888891</v>
       </c>
       <c r="C374" s="14">
-        <v>43601.680555555555</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D374" s="15" t="s">
         <v>47</v>
@@ -8563,10 +8545,10 @@
         <v>36</v>
       </c>
       <c r="B375" s="14">
-        <v>43604.423611111109</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C375" s="14">
-        <v>43605.71875</v>
+        <v>43596.84375</v>
       </c>
       <c r="D375" s="15" t="s">
         <v>47</v>
@@ -8579,10 +8561,10 @@
         <v>36</v>
       </c>
       <c r="B376" s="14">
-        <v>43606.958333333336</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C376" s="14">
-        <v>43608.552083333336</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>47</v>
@@ -8595,10 +8577,10 @@
         <v>36</v>
       </c>
       <c r="B377" s="14">
-        <v>43611.395833333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C377" s="14">
-        <v>43612.309027777781</v>
+        <v>43605.71875</v>
       </c>
       <c r="D377" s="15" t="s">
         <v>47</v>
@@ -8611,55 +8593,51 @@
         <v>36</v>
       </c>
       <c r="B378" s="14">
-        <v>43664.388888888891</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C378" s="14">
-        <v>43664.670138888891</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E378" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F378" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B379" s="7">
-        <v>43591.5</v>
-      </c>
-      <c r="C379" s="7">
-        <v>43592.041666666664</v>
-      </c>
-      <c r="D379" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B379" s="14">
+        <v>43611.395833333336</v>
+      </c>
+      <c r="C379" s="14">
+        <v>43612.309027777781</v>
+      </c>
+      <c r="D379" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E379" s="6"/>
-      <c r="F379" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F379" s="6"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B380" s="7">
-        <v>43592.427083333336</v>
-      </c>
-      <c r="C380" s="7">
-        <v>43593.125</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E380" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B380" s="14">
+        <v>43664.388888888891</v>
+      </c>
+      <c r="C380" s="14">
+        <v>43664.670138888891</v>
+      </c>
+      <c r="D380" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F380" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8667,10 +8645,10 @@
         <v>37</v>
       </c>
       <c r="B381" s="7">
-        <v>43594.114583333336</v>
+        <v>43591.5</v>
       </c>
       <c r="C381" s="7">
-        <v>43594.541666666664</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>47</v>
@@ -8685,10 +8663,10 @@
         <v>37</v>
       </c>
       <c r="B382" s="7">
-        <v>43595.083333333336</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C382" s="7">
-        <v>43595.3125</v>
+        <v>43593.125</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>47</v>
@@ -8703,10 +8681,10 @@
         <v>37</v>
       </c>
       <c r="B383" s="7">
-        <v>43596.5</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C383" s="7">
-        <v>43597.416666666664</v>
+        <v>43594.541666666664</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>47</v>
@@ -8721,17 +8699,17 @@
         <v>37</v>
       </c>
       <c r="B384" s="7">
-        <v>43633.25</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="C384" s="7">
-        <v>43633.833333333336</v>
+        <v>43595.3125</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8739,17 +8717,17 @@
         <v>37</v>
       </c>
       <c r="B385" s="7">
-        <v>43645</v>
+        <v>43596.5</v>
       </c>
       <c r="C385" s="7">
-        <v>43645.1875</v>
+        <v>43597.416666666664</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8757,13 +8735,13 @@
         <v>37</v>
       </c>
       <c r="B386" s="7">
-        <v>43646.020833333336</v>
+        <v>43633.25</v>
       </c>
       <c r="C386" s="7">
-        <v>43646.1875</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
@@ -8772,38 +8750,38 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B387" s="7">
-        <v>43594.114583333336</v>
+        <v>43645</v>
       </c>
       <c r="C387" s="7">
-        <v>43594.291666666664</v>
+        <v>43645.1875</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B388" s="7">
-        <v>43596.541666666664</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="C388" s="7">
-        <v>43597.083333333336</v>
+        <v>43646.1875</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8811,17 +8789,17 @@
         <v>38</v>
       </c>
       <c r="B389" s="7">
-        <v>43633.333333333336</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C389" s="7">
-        <v>43633.833333333336</v>
+        <v>43594.291666666664</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8829,17 +8807,17 @@
         <v>38</v>
       </c>
       <c r="B390" s="7">
-        <v>43641.416666666664</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C390" s="7">
-        <v>43641.427083333336</v>
+        <v>43597.083333333336</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8847,13 +8825,13 @@
         <v>38</v>
       </c>
       <c r="B391" s="7">
-        <v>43645</v>
+        <v>43633.333333333336</v>
       </c>
       <c r="C391" s="7">
-        <v>43645.1875</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6" t="s">
@@ -8865,13 +8843,13 @@
         <v>38</v>
       </c>
       <c r="B392" s="7">
-        <v>43645.229166666664</v>
+        <v>43641.416666666664</v>
       </c>
       <c r="C392" s="7">
-        <v>43645.395833333336</v>
+        <v>43641.427083333336</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
@@ -8883,53 +8861,53 @@
         <v>38</v>
       </c>
       <c r="B393" s="7">
-        <v>43660.770833333336</v>
+        <v>43645</v>
       </c>
       <c r="C393" s="7">
-        <v>43661.513888888891</v>
+        <v>43645.1875</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E393" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B394" s="7">
-        <v>43591.583333333336</v>
+        <v>43645.229166666664</v>
       </c>
       <c r="C394" s="7">
-        <v>43592.041666666664</v>
+        <v>43645.395833333336</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E394" s="6"/>
       <c r="F394" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B395" s="7">
-        <v>43592.427083333336</v>
+        <v>43660.770833333336</v>
       </c>
       <c r="C395" s="7">
-        <v>43593.125</v>
+        <v>43661.513888888891</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E395" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F395" s="6" t="s">
         <v>56</v>
       </c>
@@ -8939,10 +8917,10 @@
         <v>39</v>
       </c>
       <c r="B396" s="7">
-        <v>43593.958333333336</v>
+        <v>43591.583333333336</v>
       </c>
       <c r="C396" s="7">
-        <v>43594.375</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>47</v>
@@ -8957,10 +8935,10 @@
         <v>39</v>
       </c>
       <c r="B397" s="7">
-        <v>43594.833333333336</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C397" s="7">
-        <v>43595.3125</v>
+        <v>43593.125</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>47</v>
@@ -8975,10 +8953,10 @@
         <v>39</v>
       </c>
       <c r="B398" s="7">
-        <v>43596.541666666664</v>
+        <v>43593.958333333336</v>
       </c>
       <c r="C398" s="7">
-        <v>43597.291666666664</v>
+        <v>43594.375</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>47</v>
@@ -8990,38 +8968,38 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B399" s="7">
-        <v>43586</v>
+        <v>43594.833333333336</v>
       </c>
       <c r="C399" s="7">
-        <v>43586.847222222219</v>
+        <v>43595.3125</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B400" s="7">
-        <v>43591.375</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C400" s="7">
-        <v>43591.458333333336</v>
+        <v>43597.291666666664</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -9029,13 +9007,13 @@
         <v>44</v>
       </c>
       <c r="B401" s="7">
-        <v>43596.291666666664</v>
+        <v>43586</v>
       </c>
       <c r="C401" s="7">
-        <v>43596.458333333336</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6" t="s">
@@ -9047,17 +9025,15 @@
         <v>44</v>
       </c>
       <c r="B402" s="7">
-        <v>43601.333333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C402" s="7">
-        <v>43601.583333333336</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E402" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E402" s="6"/>
       <c r="F402" s="6" t="s">
         <v>63</v>
       </c>
@@ -9067,10 +9043,10 @@
         <v>44</v>
       </c>
       <c r="B403" s="7">
-        <v>43604.291666666664</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C403" s="7">
-        <v>43605.583333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>47</v>
@@ -9085,15 +9061,17 @@
         <v>44</v>
       </c>
       <c r="B404" s="7">
-        <v>43607.25</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C404" s="7">
-        <v>43607.541666666664</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E404" s="6"/>
+      <c r="E404" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F404" s="6" t="s">
         <v>63</v>
       </c>
@@ -9103,10 +9081,10 @@
         <v>44</v>
       </c>
       <c r="B405" s="7">
-        <v>43611.291666666664</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C405" s="7">
-        <v>43613</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>47</v>
@@ -9121,17 +9099,17 @@
         <v>44</v>
       </c>
       <c r="B406" s="7">
-        <v>43633.166666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C406" s="7">
-        <v>43633.458333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -9139,105 +9117,103 @@
         <v>44</v>
       </c>
       <c r="B407" s="7">
-        <v>43637.270833333336</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C407" s="7">
-        <v>43637.416666666664</v>
+        <v>43613</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="7" t="s">
+      <c r="A408" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B408" s="7">
-        <v>43654.288194444445</v>
+        <v>43633.166666666664</v>
       </c>
       <c r="C408" s="7">
-        <v>43654.788194444445</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B409" s="7">
-        <v>43691.427083333336</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C409" s="7">
-        <v>43692.385416666664</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B410" s="7">
+        <v>43654.288194444445</v>
+      </c>
+      <c r="C410" s="7">
+        <v>43654.788194444445</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E410" s="6"/>
+      <c r="F410" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B411" s="7">
+        <v>43691.427083333336</v>
+      </c>
+      <c r="C411" s="7">
+        <v>43692.385416666664</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F411" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B412" s="7">
         <v>43684.361111111109</v>
       </c>
-      <c r="C410" s="7">
+      <c r="C412" s="7">
         <v>43685.361111111109</v>
       </c>
-      <c r="D410" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F410" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B411" s="7">
-        <v>43586</v>
-      </c>
-      <c r="C411" s="7">
-        <v>43586.572916666664</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E411" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F411" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B412" s="7">
-        <v>43591.375</v>
-      </c>
-      <c r="C412" s="7">
-        <v>43591.458333333336</v>
-      </c>
       <c r="D412" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E412" s="6"/>
+        <v>112</v>
+      </c>
       <c r="F412" s="6" t="s">
         <v>63</v>
       </c>
@@ -9247,15 +9223,17 @@
         <v>45</v>
       </c>
       <c r="B413" s="7">
-        <v>43594.875</v>
+        <v>43586</v>
       </c>
       <c r="C413" s="7">
-        <v>43595.708333333336</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E413" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E413" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F413" s="6" t="s">
         <v>63</v>
       </c>
@@ -9265,10 +9243,10 @@
         <v>45</v>
       </c>
       <c r="B414" s="7">
-        <v>43596.291666666664</v>
+        <v>43591.375</v>
       </c>
       <c r="C414" s="7">
-        <v>43596.458333333336</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>47</v>
@@ -9283,10 +9261,10 @@
         <v>45</v>
       </c>
       <c r="B415" s="7">
-        <v>43598</v>
+        <v>43594.875</v>
       </c>
       <c r="C415" s="7">
-        <v>43598.697916666664</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>59</v>
@@ -9301,13 +9279,13 @@
         <v>45</v>
       </c>
       <c r="B416" s="7">
-        <v>43599.479166666664</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C416" s="7">
-        <v>43600.114583333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
@@ -9319,13 +9297,13 @@
         <v>45</v>
       </c>
       <c r="B417" s="7">
-        <v>43601.333333333336</v>
+        <v>43598</v>
       </c>
       <c r="C417" s="7">
-        <v>43601.583333333336</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E417" s="6"/>
       <c r="F417" s="6" t="s">
@@ -9337,13 +9315,13 @@
         <v>45</v>
       </c>
       <c r="B418" s="7">
-        <v>43604.291666666664</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C418" s="7">
-        <v>43605.583333333336</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E418" s="6"/>
       <c r="F418" s="6" t="s">
@@ -9355,10 +9333,10 @@
         <v>45</v>
       </c>
       <c r="B419" s="7">
-        <v>43607.25</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C419" s="7">
-        <v>43607.541666666664</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>47</v>
@@ -9373,10 +9351,10 @@
         <v>45</v>
       </c>
       <c r="B420" s="7">
-        <v>43611.291666666664</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C420" s="7">
-        <v>43613</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>47</v>
@@ -9391,19 +9369,17 @@
         <v>45</v>
       </c>
       <c r="B421" s="7">
-        <v>43655.552083333336</v>
+        <v>43607.25</v>
       </c>
       <c r="C421" s="7">
-        <v>43661.5625</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E421" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E421" s="6"/>
       <c r="F421" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -9411,17 +9387,17 @@
         <v>45</v>
       </c>
       <c r="B422" s="7">
-        <v>43661.5625</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C422" s="7">
-        <v>43661.604166666664</v>
+        <v>43613</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E422" s="6"/>
       <c r="F422" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -9429,71 +9405,73 @@
         <v>45</v>
       </c>
       <c r="B423" s="7">
+        <v>43655.552083333336</v>
+      </c>
+      <c r="C423" s="7">
         <v>43661.5625</v>
       </c>
-      <c r="C423" s="7">
-        <v>43661.604166666664</v>
-      </c>
       <c r="D423" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E423" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F423" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A424" s="7" t="s">
+      <c r="A424" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B424" s="7">
-        <v>43668.784722222219</v>
+        <v>43661.5625</v>
       </c>
       <c r="C424" s="7">
-        <v>43669.243055555555</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E424" s="6"/>
       <c r="F424" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B425" s="7">
-        <v>43619</v>
+        <v>43661.5625</v>
       </c>
       <c r="C425" s="7">
-        <v>43619.125</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E425" s="6"/>
       <c r="F425" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
-        <v>46</v>
+      <c r="A426" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B426" s="7">
-        <v>43633.083333333336</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C426" s="7">
-        <v>43633.458333333336</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9501,13 +9479,13 @@
         <v>46</v>
       </c>
       <c r="B427" s="7">
-        <v>43637</v>
+        <v>43619</v>
       </c>
       <c r="C427" s="7">
-        <v>43641.541666666664</v>
+        <v>43619.125</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E427" s="6"/>
       <c r="F427" s="6" t="s">
@@ -9519,13 +9497,13 @@
         <v>46</v>
       </c>
       <c r="B428" s="7">
-        <v>43643.291666666664</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C428" s="7">
-        <v>43643.666666666664</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6" t="s">
@@ -9537,10 +9515,10 @@
         <v>46</v>
       </c>
       <c r="B429" s="7">
-        <v>43644.229166666664</v>
+        <v>43637</v>
       </c>
       <c r="C429" s="7">
-        <v>43644.583333333336</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>89</v>
@@ -9555,10 +9533,10 @@
         <v>46</v>
       </c>
       <c r="B430" s="7">
-        <v>43645.21875</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C430" s="7">
-        <v>43645.5625</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>89</v>
@@ -9572,51 +9550,51 @@
       <c r="A431" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B431" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D431" s="6"/>
-      <c r="E431" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B431" s="7">
+        <v>43644.229166666664</v>
+      </c>
+      <c r="C431" s="7">
+        <v>43644.583333333336</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E431" s="6"/>
       <c r="F431" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B432" s="32">
-        <v>43591.375</v>
-      </c>
-      <c r="C432" s="32">
-        <v>43592.458333333336</v>
-      </c>
-      <c r="D432" s="31" t="s">
-        <v>47</v>
+      <c r="A432" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B432" s="7">
+        <v>43645.21875</v>
+      </c>
+      <c r="C432" s="7">
+        <v>43645.5625</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B433" s="32">
-        <v>43592.125</v>
-      </c>
-      <c r="C433" s="32">
-        <v>43594.416666666664</v>
-      </c>
-      <c r="D433" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E433" s="6"/>
+      <c r="A433" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F433" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9624,10 +9602,10 @@
         <v>18</v>
       </c>
       <c r="B434" s="32">
-        <v>43595.291666666664</v>
+        <v>43591.375</v>
       </c>
       <c r="C434" s="32">
-        <v>43595.416666666664</v>
+        <v>43592.458333333336</v>
       </c>
       <c r="D434" s="31" t="s">
         <v>47</v>
@@ -9642,13 +9620,13 @@
         <v>18</v>
       </c>
       <c r="B435" s="32">
-        <v>43596.319444444445</v>
+        <v>43592.125</v>
       </c>
       <c r="C435" s="32">
-        <v>43596.947916666664</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D435" s="31" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
@@ -9660,15 +9638,15 @@
         <v>18</v>
       </c>
       <c r="B436" s="32">
-        <v>43601.333333333336</v>
+        <v>43595.291666666664</v>
       </c>
       <c r="C436" s="32">
-        <v>43601.854166666664</v>
+        <v>43595.416666666664</v>
       </c>
       <c r="D436" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E436" s="3"/>
+      <c r="E436" s="6"/>
       <c r="F436" s="6" t="s">
         <v>63</v>
       </c>
@@ -9678,10 +9656,10 @@
         <v>18</v>
       </c>
       <c r="B437" s="32">
-        <v>43604.083333333336</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C437" s="32">
-        <v>43605.1875</v>
+        <v>43596.947916666664</v>
       </c>
       <c r="D437" s="31" t="s">
         <v>47</v>
@@ -9696,15 +9674,15 @@
         <v>18</v>
       </c>
       <c r="B438" s="32">
-        <v>43604.083333333336</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C438" s="32">
-        <v>43633.6875</v>
+        <v>43601.854166666664</v>
       </c>
       <c r="D438" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E438" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E438" s="3"/>
       <c r="F438" s="6" t="s">
         <v>63</v>
       </c>
@@ -9714,17 +9692,17 @@
         <v>18</v>
       </c>
       <c r="B439" s="32">
-        <v>43637.270833333336</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C439" s="32">
-        <v>43637.479166666664</v>
+        <v>43605.1875</v>
       </c>
       <c r="D439" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E439" s="6"/>
       <c r="F439" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9732,13 +9710,13 @@
         <v>18</v>
       </c>
       <c r="B440" s="32">
-        <v>43663.302083333336</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C440" s="32">
-        <v>43665.5625</v>
+        <v>43633.6875</v>
       </c>
       <c r="D440" s="31" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6" t="s">
@@ -9746,71 +9724,71 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="32" t="s">
+      <c r="A441" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B441" s="32">
-        <v>43668.850694444445</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C441" s="32">
-        <v>43669.267361111109</v>
+        <v>43637.479166666664</v>
       </c>
       <c r="D441" s="31" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B442" s="32">
-        <v>43675.892361111109</v>
+        <v>43663.302083333336</v>
       </c>
       <c r="C442" s="32">
-        <v>43676.225694444445</v>
+        <v>43665.5625</v>
       </c>
       <c r="D442" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B443" s="7">
-        <v>43575</v>
-      </c>
-      <c r="C443" s="7">
-        <v>43593.75</v>
-      </c>
-      <c r="D443" s="6" t="s">
-        <v>88</v>
+      <c r="A443" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443" s="32">
+        <v>43668.850694444445</v>
+      </c>
+      <c r="C443" s="32">
+        <v>43669.267361111109</v>
+      </c>
+      <c r="D443" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="E443" s="6"/>
       <c r="F443" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A444" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B444" s="7">
-        <v>43594.965277777781</v>
-      </c>
-      <c r="C444" s="7">
-        <v>43595.375</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E444" s="6"/>
-      <c r="F444" s="6" t="s">
-        <v>63</v>
+    <row r="444" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444" s="32">
+        <v>43675.892361111109</v>
+      </c>
+      <c r="C444" s="32">
+        <v>43676.225694444445</v>
+      </c>
+      <c r="D444" s="31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9818,13 +9796,13 @@
         <v>26</v>
       </c>
       <c r="B445" s="7">
-        <v>43596.395833333336</v>
+        <v>43575</v>
       </c>
       <c r="C445" s="7">
-        <v>43596.517361111109</v>
+        <v>43593.75</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E445" s="6"/>
       <c r="F445" s="6" t="s">
@@ -9832,14 +9810,14 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B446" s="7">
-        <v>43601.420138888891</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C446" s="7">
-        <v>43601.604166666664</v>
+        <v>43595.375</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>47</v>
@@ -9850,14 +9828,14 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B447" s="7">
-        <v>43604.4375</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C447" s="7">
-        <v>43604.638888888891</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>47</v>
@@ -9872,10 +9850,10 @@
         <v>26</v>
       </c>
       <c r="B448" s="7">
-        <v>43604.875</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C448" s="7">
-        <v>43605.569444444445</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>47</v>
@@ -9890,10 +9868,10 @@
         <v>26</v>
       </c>
       <c r="B449" s="7">
-        <v>43607.239583333336</v>
+        <v>43604.4375</v>
       </c>
       <c r="C449" s="7">
-        <v>43607.354166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>47</v>
@@ -9907,11 +9885,11 @@
       <c r="A450" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B450" s="22">
-        <v>43611.885416666664</v>
-      </c>
-      <c r="C450" s="22">
-        <v>43612.34375</v>
+      <c r="B450" s="7">
+        <v>43604.875</v>
+      </c>
+      <c r="C450" s="7">
+        <v>43605.569444444445</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>47</v>
@@ -9925,11 +9903,11 @@
       <c r="A451" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B451" s="22">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C451" s="22">
-        <v>43637.416666666664</v>
+      <c r="B451" s="7">
+        <v>43607.239583333336</v>
+      </c>
+      <c r="C451" s="7">
+        <v>43607.354166666664</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>47</v>
@@ -9940,14 +9918,14 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B452" s="7">
-        <v>43591.333333333336</v>
-      </c>
-      <c r="C452" s="7">
-        <v>43591.479166666664</v>
+      <c r="A452" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B452" s="22">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C452" s="22">
+        <v>43612.34375</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>47</v>
@@ -9958,14 +9936,14 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A453" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B453" s="7">
-        <v>43592.173611111109</v>
-      </c>
-      <c r="C453" s="7">
-        <v>43592.288194444445</v>
+      <c r="A453" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B453" s="22">
+        <v>43637.208333333336</v>
+      </c>
+      <c r="C453" s="22">
+        <v>43637.416666666664</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>47</v>
@@ -9980,10 +9958,10 @@
         <v>19</v>
       </c>
       <c r="B454" s="7">
-        <v>43595.041666666664</v>
+        <v>43591.333333333336</v>
       </c>
       <c r="C454" s="7">
-        <v>43595.322916666664</v>
+        <v>43591.479166666664</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>47</v>
@@ -9998,10 +9976,10 @@
         <v>19</v>
       </c>
       <c r="B455" s="7">
-        <v>43596.270833333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C455" s="7">
-        <v>43596.534722222219</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>47</v>
@@ -10016,10 +9994,10 @@
         <v>19</v>
       </c>
       <c r="B456" s="7">
-        <v>43601.40625</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C456" s="7">
-        <v>43601.565972222219</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>47</v>
@@ -10034,10 +10012,10 @@
         <v>19</v>
       </c>
       <c r="B457" s="7">
-        <v>43604.416666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C457" s="7">
-        <v>43605.368055555555</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>47</v>
@@ -10052,10 +10030,10 @@
         <v>19</v>
       </c>
       <c r="B458" s="7">
-        <v>43606.951388888891</v>
+        <v>43601.40625</v>
       </c>
       <c r="C458" s="7">
-        <v>43607.875</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>47</v>
@@ -10070,10 +10048,10 @@
         <v>19</v>
       </c>
       <c r="B459" s="7">
-        <v>43611.9375</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C459" s="7">
-        <v>43612.111111111109</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>47</v>
@@ -10088,17 +10066,17 @@
         <v>19</v>
       </c>
       <c r="B460" s="7">
-        <v>43652</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C460" s="7">
-        <v>43652.166666666664</v>
+        <v>43607.875</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -10106,17 +10084,17 @@
         <v>19</v>
       </c>
       <c r="B461" s="7">
-        <v>43655.163194444445</v>
+        <v>43611.9375</v>
       </c>
       <c r="C461" s="7">
-        <v>43655.381944444445</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E461" s="6"/>
       <c r="F461" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -10124,10 +10102,10 @@
         <v>19</v>
       </c>
       <c r="B462" s="7">
-        <v>43656.013888888891</v>
+        <v>43652</v>
       </c>
       <c r="C462" s="7">
-        <v>43656.180555555555</v>
+        <v>43652.166666666664</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>78</v>
@@ -10142,10 +10120,10 @@
         <v>19</v>
       </c>
       <c r="B463" s="7">
-        <v>43657.006944444445</v>
+        <v>43655.163194444445</v>
       </c>
       <c r="C463" s="7">
-        <v>43657.173611111109</v>
+        <v>43655.381944444445</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>78</v>
@@ -10160,10 +10138,10 @@
         <v>19</v>
       </c>
       <c r="B464" s="7">
-        <v>43660.006944444445</v>
+        <v>43656.013888888891</v>
       </c>
       <c r="C464" s="7">
-        <v>43660.173611111109</v>
+        <v>43656.180555555555</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>78</v>
@@ -10178,10 +10156,10 @@
         <v>19</v>
       </c>
       <c r="B465" s="7">
-        <v>43663</v>
+        <v>43657.006944444445</v>
       </c>
       <c r="C465" s="7">
-        <v>43663.166666666664</v>
+        <v>43657.173611111109</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>78</v>
@@ -10196,10 +10174,10 @@
         <v>19</v>
       </c>
       <c r="B466" s="7">
-        <v>43666.013888888891</v>
+        <v>43660.006944444445</v>
       </c>
       <c r="C466" s="7">
-        <v>43666.180555555555</v>
+        <v>43660.173611111109</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>78</v>
@@ -10214,10 +10192,10 @@
         <v>19</v>
       </c>
       <c r="B467" s="7">
-        <v>43668.229166666664</v>
+        <v>43663</v>
       </c>
       <c r="C467" s="7">
-        <v>43668.388888888891</v>
+        <v>43663.166666666664</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>78</v>
@@ -10229,38 +10207,38 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B468" s="7">
-        <v>43591.409722222219</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C468" s="7">
-        <v>43592.583333333336</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B469" s="7">
-        <v>43595.194444444445</v>
+        <v>43668.229166666664</v>
       </c>
       <c r="C469" s="7">
-        <v>43595.4375</v>
+        <v>43668.388888888891</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E469" s="6"/>
       <c r="F469" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -10268,10 +10246,10 @@
         <v>20</v>
       </c>
       <c r="B470" s="7">
-        <v>43595.260416666664</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C470" s="7">
-        <v>43594.875</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D470" s="6" t="s">
         <v>47</v>
@@ -10286,10 +10264,10 @@
         <v>20</v>
       </c>
       <c r="B471" s="7">
-        <v>43596.340277777781</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C471" s="7">
-        <v>43596.895833333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D471" s="6" t="s">
         <v>47</v>
@@ -10304,10 +10282,10 @@
         <v>20</v>
       </c>
       <c r="B472" s="7">
-        <v>43601.440972222219</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C472" s="7">
-        <v>43601.822916666664</v>
+        <v>43594.875</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>47</v>
@@ -10322,10 +10300,10 @@
         <v>20</v>
       </c>
       <c r="B473" s="7">
-        <v>43604.440972222219</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C473" s="7">
-        <v>43608.708333333336</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>47</v>
@@ -10340,10 +10318,10 @@
         <v>20</v>
       </c>
       <c r="B474" s="7">
-        <v>43610.291666666664</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C474" s="7">
-        <v>43612.25</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>47</v>
@@ -10358,17 +10336,17 @@
         <v>20</v>
       </c>
       <c r="B475" s="7">
-        <v>43633.583333333336</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C475" s="7">
-        <v>43633.833333333336</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E475" s="6"/>
       <c r="F475" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,17 +10354,17 @@
         <v>20</v>
       </c>
       <c r="B476" s="7">
-        <v>43637.104166666664</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C476" s="7">
-        <v>43637.791666666664</v>
+        <v>43612.25</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10394,13 +10372,13 @@
         <v>20</v>
       </c>
       <c r="B477" s="7">
-        <v>43646</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C477" s="7">
-        <v>43646.020833333336</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E477" s="6"/>
       <c r="F477" s="6" t="s">
@@ -10412,17 +10390,17 @@
         <v>20</v>
       </c>
       <c r="B478" s="7">
-        <v>43647.392361111109</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C478" s="7">
-        <v>43647.559027777781</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10430,17 +10408,17 @@
         <v>20</v>
       </c>
       <c r="B479" s="7">
-        <v>43649.385416666664</v>
+        <v>43646</v>
       </c>
       <c r="C479" s="7">
-        <v>43649.552083333336</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E479" s="6"/>
       <c r="F479" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10448,10 +10426,10 @@
         <v>20</v>
       </c>
       <c r="B480" s="7">
-        <v>43655.010416666664</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C480" s="7">
-        <v>43655.177083333336</v>
+        <v>43647.559027777781</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>78</v>
@@ -10466,10 +10444,10 @@
         <v>20</v>
       </c>
       <c r="B481" s="7">
-        <v>43665.013888888891</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C481" s="7">
-        <v>43665.180555555555</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>78</v>
@@ -10484,10 +10462,10 @@
         <v>20</v>
       </c>
       <c r="B482" s="7">
-        <v>43666.013888888891</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C482" s="7">
-        <v>43666.180555555555</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>78</v>
@@ -10502,10 +10480,10 @@
         <v>20</v>
       </c>
       <c r="B483" s="7">
-        <v>43668.010416666664</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C483" s="7">
-        <v>43668.177083333336</v>
+        <v>43665.180555555555</v>
       </c>
       <c r="D483" s="6" t="s">
         <v>78</v>
@@ -10520,10 +10498,10 @@
         <v>20</v>
       </c>
       <c r="B484" s="7">
-        <v>43669</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C484" s="7">
-        <v>43669.006944444445</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D484" s="6" t="s">
         <v>78</v>
@@ -10538,10 +10516,10 @@
         <v>20</v>
       </c>
       <c r="B485" s="7">
-        <v>43670</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C485" s="7">
-        <v>43670.006944444445</v>
+        <v>43668.177083333336</v>
       </c>
       <c r="D485" s="6" t="s">
         <v>78</v>
@@ -10556,10 +10534,10 @@
         <v>20</v>
       </c>
       <c r="B486" s="7">
-        <v>43670.545138888891</v>
+        <v>43669</v>
       </c>
       <c r="C486" s="7">
-        <v>43670.711805555555</v>
+        <v>43669.006944444445</v>
       </c>
       <c r="D486" s="6" t="s">
         <v>78</v>
@@ -10571,38 +10549,38 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B487" s="7">
-        <v>43591.375</v>
+        <v>43670</v>
       </c>
       <c r="C487" s="7">
-        <v>43591.78125</v>
+        <v>43670.006944444445</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E487" s="6"/>
       <c r="F487" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B488" s="7">
-        <v>43592.166666666664</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C488" s="7">
-        <v>43592.579861111109</v>
+        <v>43670.711805555555</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10610,15 +10588,16 @@
         <v>25</v>
       </c>
       <c r="B489" s="7">
-        <v>43595.194444444445</v>
+        <v>43591.375</v>
       </c>
       <c r="C489" s="7">
-        <v>43595.4375</v>
+        <v>43591.78125</v>
       </c>
       <c r="D489" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F489" t="s">
+      <c r="E489" s="6"/>
+      <c r="F489" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10627,14 +10606,15 @@
         <v>25</v>
       </c>
       <c r="B490" s="7">
-        <v>43595.260416666664</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C490" s="7">
-        <v>43594.875</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E490" s="6"/>
       <c r="F490" s="6" t="s">
         <v>63</v>
       </c>
@@ -10644,15 +10624,15 @@
         <v>25</v>
       </c>
       <c r="B491" s="7">
-        <v>43596.340277777781</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C491" s="7">
-        <v>43596.895833333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D491" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F491" s="6" t="s">
+      <c r="F491" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10661,15 +10641,15 @@
         <v>25</v>
       </c>
       <c r="B492" s="7">
-        <v>43601.388888888891</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C492" s="7">
-        <v>43601.822916666664</v>
+        <v>43594.875</v>
       </c>
       <c r="D492" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F492" t="s">
+      <c r="F492" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10678,16 +10658,15 @@
         <v>25</v>
       </c>
       <c r="B493" s="7">
-        <v>43604.350694444445</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C493" s="7">
-        <v>43608.708333333336</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D493" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E493" s="6"/>
-      <c r="F493" t="s">
+      <c r="F493" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10696,16 +10675,15 @@
         <v>25</v>
       </c>
       <c r="B494" s="7">
-        <v>43611.892361111109</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C494" s="7">
-        <v>43612.25</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E494" s="6"/>
-      <c r="F494" s="6" t="s">
+      <c r="F494" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10714,16 +10692,16 @@
         <v>25</v>
       </c>
       <c r="B495" s="7">
-        <v>43616.208333333336</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C495" s="7">
-        <v>43616.701388888891</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E495" s="6"/>
-      <c r="F495" s="6" t="s">
+      <c r="F495" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10732,17 +10710,17 @@
         <v>25</v>
       </c>
       <c r="B496" s="7">
-        <v>43633.583333333336</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C496" s="7">
-        <v>43633.791666666664</v>
+        <v>43612.25</v>
       </c>
       <c r="D496" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E496" s="6"/>
-      <c r="F496" t="s">
-        <v>90</v>
+      <c r="F496" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10750,16 +10728,52 @@
         <v>25</v>
       </c>
       <c r="B497" s="7">
+        <v>43616.208333333336</v>
+      </c>
+      <c r="C497" s="7">
+        <v>43616.701388888891</v>
+      </c>
+      <c r="D497" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B498" s="7">
+        <v>43633.583333333336</v>
+      </c>
+      <c r="C498" s="7">
+        <v>43633.791666666664</v>
+      </c>
+      <c r="D498" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E498" s="6"/>
+      <c r="F498" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B499" s="7">
         <v>43637.104166666664</v>
       </c>
-      <c r="C497" s="7">
+      <c r="C499" s="7">
         <v>43637.791666666664</v>
       </c>
-      <c r="D497" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E497" s="6"/>
-      <c r="F497" t="s">
+      <c r="D499" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E499" s="6"/>
+      <c r="F499" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10780,8 +10794,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10800,7 +10814,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10815,7 +10829,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>63</v>
@@ -10840,7 +10854,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>63</v>
@@ -10858,7 +10872,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>63</v>
@@ -10876,7 +10890,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>63</v>
@@ -10901,25 +10915,29 @@
         <v>8</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>63</v>
@@ -10937,7 +10955,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>63</v>
@@ -10962,7 +10980,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>63</v>
@@ -11064,7 +11082,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="29"/>
     </row>
@@ -11087,7 +11105,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="29"/>
     </row>

--- a/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 08_31_2019/Offsets and Clip times 08_31_2019.xlsx
@@ -10794,8 +10794,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
